--- a/backend/data/database.xlsx
+++ b/backend/data/database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ScreenTypes" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="180">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -67,6 +67,9 @@
     <t xml:space="preserve">location</t>
   </si>
   <si>
+    <t xml:space="preserve">priceUsd</t>
+  </si>
+  <si>
     <t xml:space="preserve">P5</t>
   </si>
   <si>
@@ -185,6 +188,15 @@
   </si>
   <si>
     <t xml:space="preserve">placement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mountPriceRub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deliveryPriceRub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addPriceRub</t>
   </si>
   <si>
     <t xml:space="preserve">960*960 AL задний уличный</t>
@@ -625,7 +637,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -636,6 +648,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -651,6 +675,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -827,10 +860,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J31" activeCellId="0" sqref="J31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -838,40 +871,44 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="2" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="2" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="21.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>160</v>
@@ -889,15 +926,18 @@
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>160</v>
@@ -915,15 +955,18 @@
         <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>160</v>
@@ -941,15 +984,18 @@
         <v>6</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>9.8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>160</v>
@@ -967,15 +1013,18 @@
         <v>6</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>10.7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>250</v>
@@ -993,15 +1042,18 @@
         <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>160</v>
@@ -1019,15 +1071,18 @@
         <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>160</v>
@@ -1045,15 +1100,18 @@
         <v>6</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>192</v>
@@ -1071,15 +1129,18 @@
         <v>6</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>10.2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>192</v>
@@ -1097,15 +1158,18 @@
         <v>6</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>12.4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>250</v>
@@ -1123,15 +1187,18 @@
         <v>6</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>250</v>
@@ -1149,15 +1216,18 @@
         <v>6</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>160</v>
@@ -1175,15 +1245,18 @@
         <v>6</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>14.8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>160</v>
@@ -1201,15 +1274,18 @@
         <v>6</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>16.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>160</v>
@@ -1227,15 +1303,18 @@
         <v>6</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>21.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>160</v>
@@ -1253,15 +1332,18 @@
         <v>6</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>22.5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>160</v>
@@ -1279,15 +1361,18 @@
         <v>6</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>24.2</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>160</v>
@@ -1305,15 +1390,18 @@
         <v>6</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>160</v>
@@ -1331,15 +1419,18 @@
         <v>6</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>37.2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>160</v>
@@ -1357,15 +1448,18 @@
         <v>6</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>39.5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>160</v>
@@ -1383,15 +1477,18 @@
         <v>6</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>160</v>
@@ -1409,15 +1506,18 @@
         <v>6</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>160</v>
@@ -1435,15 +1535,18 @@
         <v>3</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>160</v>
@@ -1461,15 +1564,18 @@
         <v>3</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>160</v>
@@ -1487,15 +1593,18 @@
         <v>3</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>11.8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>160</v>
@@ -1513,15 +1622,18 @@
         <v>3</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>12.8</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>192</v>
@@ -1539,15 +1651,18 @@
         <v>3</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>9.5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>160</v>
@@ -1565,15 +1680,18 @@
         <v>3</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>12.2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>160</v>
@@ -1591,15 +1709,18 @@
         <v>3</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>13.2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>250</v>
@@ -1617,15 +1738,18 @@
         <v>3</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>160</v>
@@ -1643,15 +1767,18 @@
         <v>3</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>14.7</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>160</v>
@@ -1669,15 +1796,18 @@
         <v>3</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>15.9</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>250</v>
@@ -1695,15 +1825,18 @@
         <v>3</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>160</v>
@@ -1721,15 +1854,18 @@
         <v>3</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>20.5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>160</v>
@@ -1747,15 +1883,18 @@
         <v>3</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>22.5</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>160</v>
@@ -1773,15 +1912,18 @@
         <v>3</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>192</v>
@@ -1799,15 +1941,18 @@
         <v>3</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>12.4</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>250</v>
@@ -1825,7 +1970,10 @@
         <v>3</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1844,10 +1992,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1856,10 +2004,14 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="16.31"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="69.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="68.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1873,22 +2025,22 @@
         <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>13</v>
@@ -1897,12 +2049,24 @@
         <v>1</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>960</v>
@@ -1925,22 +2089,34 @@
       <c r="H2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>55</v>
+      <c r="I2" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>165</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>640</v>
@@ -1963,22 +2139,34 @@
       <c r="H3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>55</v>
+      <c r="I3" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="M3" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="N3" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="O3" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P3" s="3" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>576</v>
@@ -2001,22 +2189,34 @@
       <c r="H4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>60</v>
+      <c r="I4" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="M4" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="N4" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>960</v>
@@ -2039,22 +2239,34 @@
       <c r="H5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>62</v>
+      <c r="I5" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>165</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>640</v>
@@ -2077,22 +2289,34 @@
       <c r="H6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>64</v>
+      <c r="I6" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>640</v>
@@ -2115,22 +2339,34 @@
       <c r="H7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>66</v>
+      <c r="I7" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>576</v>
@@ -2153,22 +2389,34 @@
       <c r="H8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>68</v>
+      <c r="I8" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>500</v>
@@ -2191,22 +2439,34 @@
       <c r="H9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>68</v>
+      <c r="I9" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>500</v>
@@ -2229,22 +2489,34 @@
       <c r="H10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>72</v>
+      <c r="I10" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>500</v>
@@ -2267,22 +2539,34 @@
       <c r="H11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>72</v>
+      <c r="I11" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>500</v>
@@ -2305,22 +2589,34 @@
       <c r="H12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>68</v>
+      <c r="I12" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P12" s="3" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>500</v>
@@ -2343,22 +2639,34 @@
       <c r="H13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>76</v>
+      <c r="I13" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="O13" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P13" s="3" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>640</v>
@@ -2381,8 +2689,8 @@
       <c r="H14" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>78</v>
+      <c r="I14" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>6</v>
@@ -2391,12 +2699,24 @@
         <v>4</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="N14" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="O14" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P14" s="3" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>480</v>
@@ -2419,8 +2739,8 @@
       <c r="H15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>78</v>
+      <c r="I15" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>6</v>
@@ -2429,12 +2749,24 @@
         <v>4</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P15" s="3" t="n">
+        <v>700</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>480</v>
@@ -2457,8 +2789,8 @@
       <c r="H16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>81</v>
+      <c r="I16" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>6</v>
@@ -2467,7 +2799,19 @@
         <v>4</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="N16" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="O16" s="3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P16" s="3" t="n">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -2500,784 +2844,784 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>84</v>
+      <c r="A1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>87</v>
+      <c r="A2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>87</v>
+      <c r="A3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="C13" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="3" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="3" t="s">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="3" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="3" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/database.xlsx
+++ b/backend/data/database.xlsx
@@ -1,578 +1,778 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ledts\calculator\backend\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900C2FA7-A769-4089-8300-AE20A465274E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ScreenTypes" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="PixelSteps" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Cabinets" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="IngressProtection" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="ScreenTypes" sheetId="1" r:id="rId1"/>
+    <sheet name="PixelSteps" sheetId="2" r:id="rId2"/>
+    <sheet name="Cabinets" sheetId="3" r:id="rId3"/>
+    <sheet name="IngressProtection" sheetId="4" r:id="rId4"/>
+    <sheet name="PartsPriceUsd" sheetId="6" r:id="rId5"/>
+    <sheet name="PartsPriceRub" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="180">
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">option</t>
-  </si>
-  <si>
-    <t xml:space="preserve">уличный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">алюминий, сталь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">монолит</t>
-  </si>
-  <si>
-    <t xml:space="preserve">интерьерный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">монолит, гибкий экран</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">width</t>
-  </si>
-  <si>
-    <t xml:space="preserve">height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brightness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refreshFreq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priceUsd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">стандарт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P5 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P4 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3.91 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3.07 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2.97 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2.6 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2.5 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">стандарт, гибкий экран</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1.86 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1.66 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1.53 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1.37 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1.25 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P8 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P6.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P6.66 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P4.81 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Р3 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Р2.97 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modulesQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">powerUnitQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">powerUnitCapacity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">receiver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pixelStep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">placement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mountPriceRub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deliveryPriceRub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addPriceRub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">960*960 AL задний уличный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P8, P8 Pro, P6.66, P6.66 Pro, P5, P5 Pro, P4, P4 Pro, P3.07, P3.07 Pro, P2.5 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">алюминий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">задний</t>
-  </si>
-  <si>
-    <t xml:space="preserve">640*640 AL задний уличный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">576*576 AL задний уличный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Р3 Pro, P6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">960*960 AL задний интерьерный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P5, P5 Pro, P4, P4 Pro, P3.07, P3.07 Pro, P2.5, P2.5 Pro, P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">640*640 AL задний интерьерный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P5, P5 Pro, P4, P4 Pro, P3.07, P3.07 Pro, P2.5, P2.5 Pro, P2, P2 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">576*576 AL задний интерьерный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3, P3 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500*500 AL фронтальный интерьерный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2.6 Pro, P3.91, P3.91 Pro, P2.97 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">фронтальный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500*500 AL задний интерьерный</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="247">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>уличный</t>
+  </si>
+  <si>
+    <t>алюминий, сталь</t>
+  </si>
+  <si>
+    <t>монолит</t>
+  </si>
+  <si>
+    <t>интерьерный</t>
+  </si>
+  <si>
+    <t>монолит, гибкий экран</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>brightness</t>
+  </si>
+  <si>
+    <t>refreshFreq</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>priceUsd</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>стандарт</t>
+  </si>
+  <si>
+    <t>P5 Pro</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P4 Pro</t>
+  </si>
+  <si>
+    <t>P3.91 Pro</t>
+  </si>
+  <si>
+    <t>P3.07</t>
+  </si>
+  <si>
+    <t>P3.07 Pro</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P3 Pro</t>
+  </si>
+  <si>
+    <t>P2.97 Pro</t>
+  </si>
+  <si>
+    <t>P2.6 Pro</t>
+  </si>
+  <si>
+    <t>P2.5</t>
+  </si>
+  <si>
+    <t>P2.5 Pro</t>
+  </si>
+  <si>
+    <t>стандарт, гибкий экран</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P2 Pro</t>
+  </si>
+  <si>
+    <t>P1.86</t>
+  </si>
+  <si>
+    <t>P1.86 Pro</t>
+  </si>
+  <si>
+    <t>P1.66 Pro</t>
+  </si>
+  <si>
+    <t>P1.53 Pro</t>
+  </si>
+  <si>
+    <t>P1.37 Pro</t>
+  </si>
+  <si>
+    <t>P1.25 Pro</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P8 Pro</t>
+  </si>
+  <si>
+    <t>P6.66</t>
+  </si>
+  <si>
+    <t>P6.66 Pro</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P4.81 Pro</t>
+  </si>
+  <si>
+    <t>Р3 Pro</t>
+  </si>
+  <si>
+    <t>Р2.97 Pro</t>
+  </si>
+  <si>
+    <t>modulesQ</t>
+  </si>
+  <si>
+    <t>powerUnitQ</t>
+  </si>
+  <si>
+    <t>powerUnitCapacity</t>
+  </si>
+  <si>
+    <t>receiver</t>
+  </si>
+  <si>
+    <t>cooler</t>
+  </si>
+  <si>
+    <t>pixelStep</t>
+  </si>
+  <si>
+    <t>placement</t>
+  </si>
+  <si>
+    <t>mountPriceRub</t>
+  </si>
+  <si>
+    <t>deliveryPriceRub</t>
+  </si>
+  <si>
+    <t>addPriceRub</t>
+  </si>
+  <si>
+    <t>960*960 AL задний уличный</t>
+  </si>
+  <si>
+    <t>P8, P8 Pro, P6.66, P6.66 Pro, P5, P5 Pro, P4, P4 Pro, P3.07, P3.07 Pro, P2.5 Pro</t>
+  </si>
+  <si>
+    <t>алюминий</t>
+  </si>
+  <si>
+    <t>задний</t>
+  </si>
+  <si>
+    <t>640*640 AL задний уличный</t>
+  </si>
+  <si>
+    <t>576*576 AL задний уличный</t>
+  </si>
+  <si>
+    <t>Р3 Pro, P6</t>
+  </si>
+  <si>
+    <t>960*960 AL задний интерьерный</t>
+  </si>
+  <si>
+    <t>P5, P5 Pro, P4, P4 Pro, P3.07, P3.07 Pro, P2.5, P2.5 Pro, P2</t>
+  </si>
+  <si>
+    <t>640*640 AL задний интерьерный</t>
+  </si>
+  <si>
+    <t>P5, P5 Pro, P4, P4 Pro, P3.07, P3.07 Pro, P2.5, P2.5 Pro, P2, P2 Pro</t>
+  </si>
+  <si>
+    <t>576*576 AL задний интерьерный</t>
+  </si>
+  <si>
+    <t>P3, P3 Pro</t>
+  </si>
+  <si>
+    <t>500*500 AL фронтальный интерьерный</t>
+  </si>
+  <si>
+    <t>P2.6 Pro, P3.91, P3.91 Pro, P2.97 Pro</t>
+  </si>
+  <si>
+    <t>фронтальный</t>
+  </si>
+  <si>
+    <t>500*500 AL задний интерьерный</t>
   </si>
   <si>
     <t xml:space="preserve">500*500 AL задний уличный </t>
   </si>
   <si>
-    <t xml:space="preserve">P3.91 Pro, P4.81 Pro, Р2.97 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500*1000 AL задний уличный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500*1000 AL задний интерьерный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500*1000 AL фронтальный интерьерный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2.6 Pro, P3.91, P3.91 Pro, P2.97 Pro,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">640*640_C AL фронтальный интерьерный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P4, P4 Pro, P3.07, P3.07 Pro, P2.5, P2.5 Pro, P2, P1.86, P1.86 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480*640_C AL фронтальный интерьерный шаг пикселя до 1.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">480*640_C AL фронтальный интерьерный шаг пикселя ниже 1.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1.66 Pro, P1.53 Pro, P1.37 Pro, P1.25 Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hardObjectProtection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waterProtection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нет защиты от твердых предметов.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нет защиты от воды.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Защита от предметов диаметром более 50 мм.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Защита от капель воды, падающих под углом до 15°.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Защита от брызг воды, падающих под углом до 60°.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Защита от брызг воды со всех сторон.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Защита от струй воды с любого направления.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Защита от сильных струй воды (например, на палубе корабля).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Защита при временном погружении в воду (до 1 м на 30 минут).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Защита при длительном погружении в воду (более 1 м на длительное время).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Защита от высокотемпературной струи воды под высоким давлением.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Защита от вертикальных капель воды.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Защита от сильных струй воды.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Защита при временном погружении в воду.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Защита при длительном погружении в воду.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Защита от высокотемпературной струи воды.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Защита от предметов диаметром более 12,5 мм.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Защита от предметов диаметром более 2,5 мм.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Защита от предметов диаметром более 1 мм.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Частичная защита от пыли.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Полная защита от пыли.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP69</t>
+    <t>P3.91 Pro, P4.81 Pro, Р2.97 Pro</t>
+  </si>
+  <si>
+    <t>500*1000 AL задний уличный</t>
+  </si>
+  <si>
+    <t>500*1000 AL задний интерьерный</t>
+  </si>
+  <si>
+    <t>500*1000 AL фронтальный интерьерный</t>
+  </si>
+  <si>
+    <t>P2.6 Pro, P3.91, P3.91 Pro, P2.97 Pro,</t>
+  </si>
+  <si>
+    <t>640*640_C AL фронтальный интерьерный</t>
+  </si>
+  <si>
+    <t>P4, P4 Pro, P3.07, P3.07 Pro, P2.5, P2.5 Pro, P2, P1.86, P1.86 Pro</t>
+  </si>
+  <si>
+    <t>480*640_C AL фронтальный интерьерный шаг пикселя до 1.86</t>
+  </si>
+  <si>
+    <t>480*640_C AL фронтальный интерьерный шаг пикселя ниже 1.86</t>
+  </si>
+  <si>
+    <t>P1.66 Pro, P1.53 Pro, P1.37 Pro, P1.25 Pro</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>hardObjectProtection</t>
+  </si>
+  <si>
+    <t>waterProtection</t>
+  </si>
+  <si>
+    <t>IP00</t>
+  </si>
+  <si>
+    <t>Нет защиты от твердых предметов.</t>
+  </si>
+  <si>
+    <t>Нет защиты от воды.</t>
+  </si>
+  <si>
+    <t>IP01</t>
+  </si>
+  <si>
+    <t>Защита от предметов диаметром более 50 мм.</t>
+  </si>
+  <si>
+    <t>IP02</t>
+  </si>
+  <si>
+    <t>Защита от капель воды, падающих под углом до 15°.</t>
+  </si>
+  <si>
+    <t>IP03</t>
+  </si>
+  <si>
+    <t>Защита от брызг воды, падающих под углом до 60°.</t>
+  </si>
+  <si>
+    <t>IP04</t>
+  </si>
+  <si>
+    <t>Защита от брызг воды со всех сторон.</t>
+  </si>
+  <si>
+    <t>IP05</t>
+  </si>
+  <si>
+    <t>Защита от струй воды с любого направления.</t>
+  </si>
+  <si>
+    <t>IP06</t>
+  </si>
+  <si>
+    <t>Защита от сильных струй воды (например, на палубе корабля).</t>
+  </si>
+  <si>
+    <t>IP07</t>
+  </si>
+  <si>
+    <t>Защита при временном погружении в воду (до 1 м на 30 минут).</t>
+  </si>
+  <si>
+    <t>IP08</t>
+  </si>
+  <si>
+    <t>Защита при длительном погружении в воду (более 1 м на длительное время).</t>
+  </si>
+  <si>
+    <t>IP09</t>
+  </si>
+  <si>
+    <t>Защита от высокотемпературной струи воды под высоким давлением.</t>
+  </si>
+  <si>
+    <t>IP10</t>
+  </si>
+  <si>
+    <t>IP11</t>
+  </si>
+  <si>
+    <t>Защита от вертикальных капель воды.</t>
+  </si>
+  <si>
+    <t>IP12</t>
+  </si>
+  <si>
+    <t>IP13</t>
+  </si>
+  <si>
+    <t>IP14</t>
+  </si>
+  <si>
+    <t>IP15</t>
+  </si>
+  <si>
+    <t>IP16</t>
+  </si>
+  <si>
+    <t>Защита от сильных струй воды.</t>
+  </si>
+  <si>
+    <t>IP17</t>
+  </si>
+  <si>
+    <t>Защита при временном погружении в воду.</t>
+  </si>
+  <si>
+    <t>IP18</t>
+  </si>
+  <si>
+    <t>Защита при длительном погружении в воду.</t>
+  </si>
+  <si>
+    <t>IP19</t>
+  </si>
+  <si>
+    <t>Защита от высокотемпературной струи воды.</t>
+  </si>
+  <si>
+    <t>IP20</t>
+  </si>
+  <si>
+    <t>Защита от предметов диаметром более 12,5 мм.</t>
+  </si>
+  <si>
+    <t>IP21</t>
+  </si>
+  <si>
+    <t>IP22</t>
+  </si>
+  <si>
+    <t>IP23</t>
+  </si>
+  <si>
+    <t>IP24</t>
+  </si>
+  <si>
+    <t>IP25</t>
+  </si>
+  <si>
+    <t>IP26</t>
+  </si>
+  <si>
+    <t>IP27</t>
+  </si>
+  <si>
+    <t>IP28</t>
+  </si>
+  <si>
+    <t>IP29</t>
+  </si>
+  <si>
+    <t>IP30</t>
+  </si>
+  <si>
+    <t>Защита от предметов диаметром более 2,5 мм.</t>
+  </si>
+  <si>
+    <t>IP31</t>
+  </si>
+  <si>
+    <t>IP32</t>
+  </si>
+  <si>
+    <t>IP33</t>
+  </si>
+  <si>
+    <t>IP34</t>
+  </si>
+  <si>
+    <t>IP35</t>
+  </si>
+  <si>
+    <t>IP36</t>
+  </si>
+  <si>
+    <t>IP37</t>
+  </si>
+  <si>
+    <t>IP38</t>
+  </si>
+  <si>
+    <t>IP39</t>
+  </si>
+  <si>
+    <t>IP40</t>
+  </si>
+  <si>
+    <t>Защита от предметов диаметром более 1 мм.</t>
+  </si>
+  <si>
+    <t>IP41</t>
+  </si>
+  <si>
+    <t>IP42</t>
+  </si>
+  <si>
+    <t>IP43</t>
+  </si>
+  <si>
+    <t>IP44</t>
+  </si>
+  <si>
+    <t>IP45</t>
+  </si>
+  <si>
+    <t>IP46</t>
+  </si>
+  <si>
+    <t>IP47</t>
+  </si>
+  <si>
+    <t>IP48</t>
+  </si>
+  <si>
+    <t>IP49</t>
+  </si>
+  <si>
+    <t>IP50</t>
+  </si>
+  <si>
+    <t>Частичная защита от пыли.</t>
+  </si>
+  <si>
+    <t>IP51</t>
+  </si>
+  <si>
+    <t>IP52</t>
+  </si>
+  <si>
+    <t>IP53</t>
+  </si>
+  <si>
+    <t>IP54</t>
+  </si>
+  <si>
+    <t>IP55</t>
+  </si>
+  <si>
+    <t>IP56</t>
+  </si>
+  <si>
+    <t>IP57</t>
+  </si>
+  <si>
+    <t>IP58</t>
+  </si>
+  <si>
+    <t>IP59</t>
+  </si>
+  <si>
+    <t>IP60</t>
+  </si>
+  <si>
+    <t>Полная защита от пыли.</t>
+  </si>
+  <si>
+    <t>IP61</t>
+  </si>
+  <si>
+    <t>IP62</t>
+  </si>
+  <si>
+    <t>IP63</t>
+  </si>
+  <si>
+    <t>IP64</t>
+  </si>
+  <si>
+    <t>IP65</t>
+  </si>
+  <si>
+    <t>IP66</t>
+  </si>
+  <si>
+    <t>IP67</t>
+  </si>
+  <si>
+    <t>IP68</t>
+  </si>
+  <si>
+    <t>IP69</t>
+  </si>
+  <si>
+    <t>powerUnit</t>
+  </si>
+  <si>
+    <t>БП300</t>
+  </si>
+  <si>
+    <t>БП200</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>priceUSD</t>
+  </si>
+  <si>
+    <t>priceRUB</t>
+  </si>
+  <si>
+    <t>detailEn</t>
+  </si>
+  <si>
+    <t>PU200</t>
+  </si>
+  <si>
+    <t>PU300</t>
+  </si>
+  <si>
+    <t>Приёмная карта</t>
+  </si>
+  <si>
+    <t>Коммутационные провода</t>
+  </si>
+  <si>
+    <t>Кулер</t>
+  </si>
+  <si>
+    <t>Профиль 2590</t>
+  </si>
+  <si>
+    <t>Труба 40x40</t>
+  </si>
+  <si>
+    <t>Сварочные работы</t>
+  </si>
+  <si>
+    <t>Поликарбонат</t>
+  </si>
+  <si>
+    <t>Магниты</t>
+  </si>
+  <si>
+    <t>Прочее монолит</t>
+  </si>
+  <si>
+    <t>Доставка монолит</t>
+  </si>
+  <si>
+    <t>Сборка монолит</t>
+  </si>
+  <si>
+    <t>Модуль красный</t>
+  </si>
+  <si>
+    <t>Модуль белый</t>
+  </si>
+  <si>
+    <t>Модуль желтый</t>
+  </si>
+  <si>
+    <t>Модуль зеленый</t>
+  </si>
+  <si>
+    <t>Модуль синий</t>
+  </si>
+  <si>
+    <t>Профиль гипсокартонный 60*27</t>
+  </si>
+  <si>
+    <t>Прочее для бегущёй строки</t>
+  </si>
+  <si>
+    <t>Доставка для бегущей строки</t>
+  </si>
+  <si>
+    <t>Управление строки 1-2</t>
+  </si>
+  <si>
+    <t>Управление строки 3-4</t>
+  </si>
+  <si>
+    <t>Управление строки 5-8</t>
+  </si>
+  <si>
+    <t>Управление строки 9-12</t>
+  </si>
+  <si>
+    <t>Управление строки 13-16</t>
+  </si>
+  <si>
+    <t>Стальной задний уличный</t>
+  </si>
+  <si>
+    <t>Стальной фронтальный уличный</t>
+  </si>
+  <si>
+    <t>Стальной задний интерьерный</t>
+  </si>
+  <si>
+    <t>Стальной фронтальный интерьерный</t>
+  </si>
+  <si>
+    <t>Гибкий экран</t>
+  </si>
+  <si>
+    <t>wires</t>
+  </si>
+  <si>
+    <t>welding</t>
+  </si>
+  <si>
+    <t>polycarbonate</t>
+  </si>
+  <si>
+    <t>magnets</t>
+  </si>
+  <si>
+    <t>monolithOther</t>
+  </si>
+  <si>
+    <t>monolithDelivery</t>
+  </si>
+  <si>
+    <t>monolithInstall</t>
+  </si>
+  <si>
+    <t>moduleRed</t>
+  </si>
+  <si>
+    <t>moduleWhite</t>
+  </si>
+  <si>
+    <t>moduleYellow</t>
+  </si>
+  <si>
+    <t>moduleGreen</t>
+  </si>
+  <si>
+    <t>moduleBlue</t>
+  </si>
+  <si>
+    <t>runningLineOther</t>
+  </si>
+  <si>
+    <t>runningLineDelivery</t>
+  </si>
+  <si>
+    <t>Сборка бегущей строки</t>
+  </si>
+  <si>
+    <t>runningLineInstall</t>
+  </si>
+  <si>
+    <t>lineManagement_1_2</t>
+  </si>
+  <si>
+    <t>lineManagement_3_4</t>
+  </si>
+  <si>
+    <t>lineManagement_5_8</t>
+  </si>
+  <si>
+    <t>lineManagement_9_12</t>
+  </si>
+  <si>
+    <t>lineManagement_13_16</t>
+  </si>
+  <si>
+    <t>profilePlasterboard_60x27</t>
+  </si>
+  <si>
+    <t>profile_2590</t>
+  </si>
+  <si>
+    <t>pipe_40x40</t>
+  </si>
+  <si>
+    <t>steelBackOutdoor</t>
+  </si>
+  <si>
+    <t>steelFrontOutdoor</t>
+  </si>
+  <si>
+    <t>steelBackIndoor</t>
+  </si>
+  <si>
+    <t>steelFrontIndoor</t>
+  </si>
+  <si>
+    <t>flexibleScreen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -580,19 +780,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -604,7 +802,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -612,132 +810,95 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{5033A922-AEBE-4CDD-9FD8-03B9F0448B35}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -790,28 +951,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.49"/>
+    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,7 +982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -833,7 +993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -845,10 +1005,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -856,25 +1015,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="2" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="2" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="21.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="11.53"/>
+    <col min="2" max="4" width="11.5703125" style="2"/>
+    <col min="5" max="7" width="12.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -903,23 +1059,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>160</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="2">
         <v>320</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2">
         <v>800</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="2">
         <v>1920</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -928,27 +1084,27 @@
       <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="3">
         <v>10.5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="2">
         <v>160</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2">
         <v>320</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2">
         <v>800</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="2">
         <v>1920</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -957,27 +1113,27 @@
       <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>160</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2">
         <v>320</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2">
         <v>800</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="2">
         <v>1920</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -986,27 +1142,27 @@
       <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="3" t="n">
-        <v>9.8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>160</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>320</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>800</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="2">
         <v>1920</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1015,27 +1171,27 @@
       <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="3">
         <v>10.7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>250</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>250</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2">
         <v>800</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="2">
         <v>1920</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1044,27 +1200,27 @@
       <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>160</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2">
         <v>320</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="2">
         <v>800</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="2">
         <v>1920</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -1073,27 +1229,27 @@
       <c r="H7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>160</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2">
         <v>320</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="2">
         <v>800</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="2">
         <v>1920</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1102,27 +1258,27 @@
       <c r="H8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>192</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2">
         <v>192</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="2">
         <v>800</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="2">
         <v>1920</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1131,27 +1287,27 @@
       <c r="H9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="3" t="n">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I9" s="3">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>192</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2">
         <v>192</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="2">
         <v>800</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="2">
         <v>1920</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1160,27 +1316,27 @@
       <c r="H10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="3">
         <v>12.4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>250</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2">
         <v>250</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="2">
         <v>800</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="2">
         <v>1920</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1189,27 +1345,27 @@
       <c r="H11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>250</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2">
         <v>250</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="2">
         <v>800</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="2">
         <v>1920</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1218,27 +1374,27 @@
       <c r="H12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>160</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="2">
         <v>320</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="2">
         <v>800</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="2">
         <v>1920</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1247,27 +1403,27 @@
       <c r="H13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="3">
         <v>14.8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="2">
         <v>160</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="2">
         <v>320</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="2">
         <v>800</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="2">
         <v>1920</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1276,27 +1432,27 @@
       <c r="H14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="3">
         <v>16.5</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="2">
         <v>160</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="2">
         <v>320</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="2">
         <v>800</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="2">
         <v>1920</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1305,27 +1461,27 @@
       <c r="H15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="3">
         <v>21.5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="2">
         <v>160</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="2">
         <v>320</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="2">
         <v>800</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="2">
         <v>1920</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1334,27 +1490,27 @@
       <c r="H16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="3">
         <v>22.5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="2">
         <v>160</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="2">
         <v>320</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="2">
         <v>800</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="2">
         <v>1920</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1363,27 +1519,27 @@
       <c r="H17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="3">
         <v>24.2</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="2">
         <v>160</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="2">
         <v>320</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="2">
         <v>800</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="2">
         <v>1920</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -1392,27 +1548,27 @@
       <c r="H18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="3">
         <v>25.8</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="2">
         <v>160</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="2">
         <v>320</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="2">
         <v>800</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="2">
         <v>1920</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1421,27 +1577,27 @@
       <c r="H19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="3" t="n">
-        <v>37.2</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I19" s="3">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="2">
         <v>160</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="2">
         <v>320</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="2">
         <v>800</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="2">
         <v>1920</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1450,27 +1606,27 @@
       <c r="H20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="3">
         <v>39.5</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="2">
         <v>160</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="2">
         <v>320</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="2">
         <v>800</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="2">
         <v>1920</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -1479,27 +1635,27 @@
       <c r="H21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="3">
         <v>81</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="2">
         <v>160</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="2">
         <v>320</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="2">
         <v>800</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="2">
         <v>1920</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -1508,27 +1664,27 @@
       <c r="H22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="I22" s="3">
         <v>61.5</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="2">
         <v>160</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="2">
         <v>320</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="2">
         <v>5000</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="2">
         <v>3840</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -1537,27 +1693,27 @@
       <c r="H23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="I23" s="3">
         <v>11.5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="2">
         <v>160</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="2">
         <v>320</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="2">
         <v>5000</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="2">
         <v>3840</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -1566,27 +1722,27 @@
       <c r="H24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="I24" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="2">
         <v>160</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="2">
         <v>320</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="2">
         <v>5000</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="2">
         <v>3840</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -1595,27 +1751,27 @@
       <c r="H25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="3" t="n">
+      <c r="I25" s="3">
         <v>11.8</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="2">
         <v>160</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="2">
         <v>320</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="2">
         <v>5000</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="2">
         <v>3840</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -1624,27 +1780,27 @@
       <c r="H26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="I26" s="3">
         <v>12.8</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="2">
         <v>192</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="2">
         <v>192</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="2">
         <v>5000</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="2">
         <v>3840</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -1653,27 +1809,27 @@
       <c r="H27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="3" t="n">
+      <c r="I27" s="3">
         <v>9.5</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="2">
         <v>160</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="2">
         <v>320</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="2">
         <v>5000</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="2">
         <v>3840</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -1682,27 +1838,27 @@
       <c r="H28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="3" t="n">
+      <c r="I28" s="3">
         <v>12.2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="2">
         <v>160</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="2">
         <v>320</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="2">
         <v>5000</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="2">
         <v>3840</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -1711,27 +1867,27 @@
       <c r="H29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="3" t="n">
+      <c r="I29" s="3">
         <v>13.2</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="2">
         <v>250</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="2">
         <v>250</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="2">
         <v>5000</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="2">
         <v>3840</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -1740,27 +1896,27 @@
       <c r="H30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="3" t="n">
+      <c r="I30" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="2">
         <v>160</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="2">
         <v>320</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="2">
         <v>5000</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="2">
         <v>3840</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -1769,27 +1925,27 @@
       <c r="H31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="3" t="n">
+      <c r="I31" s="3">
         <v>14.7</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="2">
         <v>160</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="2">
         <v>320</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="2">
         <v>5000</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" s="2">
         <v>3840</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -1798,27 +1954,27 @@
       <c r="H32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="3" t="n">
+      <c r="I32" s="3">
         <v>15.9</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="2">
         <v>250</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="2">
         <v>250</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="2">
         <v>5000</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="2">
         <v>3840</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -1827,27 +1983,27 @@
       <c r="H33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="3" t="n">
+      <c r="I33" s="3">
         <v>25.5</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="2">
         <v>160</v>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" s="2">
         <v>320</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="2">
         <v>5000</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="F34" s="2">
         <v>3840</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -1856,27 +2012,27 @@
       <c r="H34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="3" t="n">
+      <c r="I34" s="3">
         <v>20.5</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="2">
         <v>160</v>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" s="2">
         <v>320</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="2">
         <v>5000</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="2">
         <v>3840</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -1885,27 +2041,27 @@
       <c r="H35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="3" t="n">
+      <c r="I35" s="3">
         <v>22.5</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="2">
         <v>160</v>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" s="2">
         <v>320</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="2">
         <v>5000</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="F36" s="2">
         <v>3840</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -1914,27 +2070,27 @@
       <c r="H36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I36" s="3" t="n">
+      <c r="I36" s="3">
         <v>37.5</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="2">
         <v>192</v>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" s="2">
         <v>192</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="2">
         <v>5000</v>
       </c>
-      <c r="F37" s="2" t="n">
+      <c r="F37" s="2">
         <v>3840</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -1943,27 +2099,27 @@
       <c r="H37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I37" s="3" t="n">
+      <c r="I37" s="3">
         <v>12.4</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="2">
         <v>250</v>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" s="2">
         <v>250</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="2">
         <v>5000</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="F38" s="2">
         <v>3840</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -1972,15 +2128,14 @@
       <c r="H38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I38" s="3" t="n">
+      <c r="I38" s="3">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1988,33 +2143,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:P16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="16.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="68.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.12"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.4"/>
+    <col min="1" max="1" width="56.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="2"/>
+    <col min="5" max="5" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="11.5703125" style="2"/>
+    <col min="10" max="10" width="68.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="3"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2028,797 +2181,845 @@
         <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>960</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>960</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="2">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="2">
+        <v>300</v>
+      </c>
+      <c r="G2" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="G2" s="2" t="n">
+      <c r="H2" s="2">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="I2" s="2">
         <v>2</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="N2" s="3">
         <v>165</v>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="O2" s="3">
         <v>100</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="P2" s="3">
         <v>2000</v>
       </c>
-      <c r="P2" s="3" t="n">
+      <c r="Q2" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="1">
         <v>640</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>640</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="2">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="2">
+        <v>200</v>
+      </c>
+      <c r="G3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="G3" s="2" t="n">
+      <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="N3" s="3">
         <v>85</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="O3" s="3">
         <v>100</v>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="P3" s="3">
         <v>2000</v>
       </c>
-      <c r="P3" s="3" t="n">
+      <c r="Q3" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>576</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>576</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="2">
+        <v>200</v>
+      </c>
+      <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="G4" s="2" t="n">
+      <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="N4" s="3">
         <v>85</v>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="O4" s="3">
         <v>100</v>
       </c>
-      <c r="O4" s="3" t="n">
+      <c r="P4" s="3">
         <v>2000</v>
       </c>
-      <c r="P4" s="3" t="n">
+      <c r="Q4" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="1">
         <v>960</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>960</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" s="2">
+        <v>200</v>
+      </c>
+      <c r="G5" s="2">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="G5" s="2" t="n">
+      <c r="H5" s="2">
         <v>2</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="I5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="N5" s="3">
         <v>165</v>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="O5" s="3">
         <v>100</v>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="P5" s="3">
         <v>2000</v>
       </c>
-      <c r="P5" s="3" t="n">
+      <c r="Q5" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>640</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>640</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>8</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="2">
+        <v>200</v>
+      </c>
+      <c r="G6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="G6" s="2" t="n">
+      <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="I6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="3" t="n">
+      <c r="N6" s="3">
         <v>85</v>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="O6" s="3">
         <v>100</v>
       </c>
-      <c r="O6" s="3" t="n">
+      <c r="P6" s="3">
         <v>2000</v>
       </c>
-      <c r="P6" s="3" t="n">
+      <c r="Q6" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>640</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>640</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="2">
         <v>9</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="2">
+        <v>200</v>
+      </c>
+      <c r="G7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="G7" s="2" t="n">
+      <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="I7" s="2">
         <v>0</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="3" t="n">
+      <c r="N7" s="3">
         <v>85</v>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="O7" s="3">
         <v>100</v>
       </c>
-      <c r="O7" s="3" t="n">
+      <c r="P7" s="3">
         <v>2000</v>
       </c>
-      <c r="P7" s="3" t="n">
+      <c r="Q7" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="1">
         <v>576</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>576</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="2">
         <v>4</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="2">
+        <v>200</v>
+      </c>
+      <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="G8" s="2" t="n">
+      <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="I8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M8" s="3" t="n">
+      <c r="N8" s="3">
         <v>70</v>
       </c>
-      <c r="N8" s="3" t="n">
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3" t="n">
+      <c r="P8" s="3">
         <v>2000</v>
       </c>
-      <c r="P8" s="3" t="n">
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>500</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>500</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2">
         <v>4</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="2">
+        <v>200</v>
+      </c>
+      <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="G9" s="2" t="n">
+      <c r="H9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="I9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="3" t="n">
+      <c r="N9" s="3">
         <v>70</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3" t="n">
+      <c r="P9" s="3">
         <v>2000</v>
       </c>
-      <c r="P9" s="3" t="n">
+      <c r="Q9" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="1">
         <v>500</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>500</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2">
         <v>4</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="2">
+        <v>200</v>
+      </c>
+      <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="G10" s="2" t="n">
+      <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="I10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="3" t="n">
+      <c r="N10" s="3">
         <v>70</v>
       </c>
-      <c r="N10" s="3" t="n">
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3" t="n">
+      <c r="P10" s="3">
         <v>2000</v>
       </c>
-      <c r="P10" s="3" t="n">
+      <c r="Q10" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>500</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>1000</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2">
         <v>8</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11" s="2">
+        <v>300</v>
+      </c>
+      <c r="G11" s="2">
         <v>2</v>
       </c>
-      <c r="F11" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="G11" s="2" t="n">
+      <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="I11" s="2">
         <v>0</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="3" t="n">
+      <c r="N11" s="3">
         <v>92</v>
       </c>
-      <c r="N11" s="3" t="n">
+      <c r="O11" s="3">
         <v>100</v>
       </c>
-      <c r="O11" s="3" t="n">
+      <c r="P11" s="3">
         <v>2000</v>
       </c>
-      <c r="P11" s="3" t="n">
+      <c r="Q11" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="1">
         <v>500</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>1000</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2">
         <v>8</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="2">
+        <v>200</v>
+      </c>
+      <c r="G12" s="2">
         <v>2</v>
       </c>
-      <c r="F12" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="G12" s="2" t="n">
+      <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="I12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M12" s="3" t="n">
+      <c r="N12" s="3">
         <v>92</v>
       </c>
-      <c r="N12" s="3" t="n">
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3" t="n">
+      <c r="P12" s="3">
         <v>2000</v>
       </c>
-      <c r="P12" s="3" t="n">
+      <c r="Q12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="1">
         <v>500</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>1000</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="2">
         <v>8</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="2">
+        <v>200</v>
+      </c>
+      <c r="G13" s="2">
         <v>2</v>
       </c>
-      <c r="F13" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="G13" s="2" t="n">
+      <c r="H13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="I13" s="2">
         <v>0</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="3" t="n">
+      <c r="N13" s="3">
         <v>92</v>
       </c>
-      <c r="N13" s="3" t="n">
+      <c r="O13" s="3">
         <v>100</v>
       </c>
-      <c r="O13" s="3" t="n">
+      <c r="P13" s="3">
         <v>2000</v>
       </c>
-      <c r="P13" s="3" t="n">
+      <c r="Q13" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="1">
         <v>640</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>640</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="2">
         <v>8</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="2">
+        <v>200</v>
+      </c>
+      <c r="G14" s="2">
         <v>2</v>
       </c>
-      <c r="F14" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="G14" s="2" t="n">
+      <c r="H14" s="2">
         <v>1</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="I14" s="2">
         <v>0</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M14" s="3" t="n">
+      <c r="N14" s="3">
         <v>65</v>
       </c>
-      <c r="N14" s="3" t="n">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3" t="n">
+      <c r="P14" s="3">
         <v>2000</v>
       </c>
-      <c r="P14" s="3" t="n">
+      <c r="Q14" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="1">
         <v>480</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>640</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="2">
         <v>6</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" s="2">
+        <v>200</v>
+      </c>
+      <c r="G15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="G15" s="2" t="n">
+      <c r="H15" s="2">
         <v>1</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="I15" s="2">
         <v>0</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M15" s="3" t="n">
+      <c r="N15" s="3">
         <v>50</v>
       </c>
-      <c r="N15" s="3" t="n">
+      <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3" t="n">
+      <c r="P15" s="3">
         <v>2000</v>
       </c>
-      <c r="P15" s="3" t="n">
+      <c r="Q15" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="1">
         <v>480</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>640</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="2">
         <v>6</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="2">
+        <v>300</v>
+      </c>
+      <c r="G16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="2" t="n">
-        <v>300</v>
-      </c>
-      <c r="G16" s="2" t="n">
+      <c r="H16" s="2">
         <v>1</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="I16" s="2">
         <v>0</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M16" s="3" t="n">
+      <c r="N16" s="3">
         <v>50</v>
       </c>
-      <c r="N16" s="3" t="n">
+      <c r="O16" s="3">
         <v>100</v>
       </c>
-      <c r="O16" s="3" t="n">
+      <c r="P16" s="3">
         <v>2000</v>
       </c>
-      <c r="P16" s="3" t="n">
+      <c r="Q16" s="3">
         <v>700</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2826,24 +3027,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="43.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="68.07"/>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43" style="1" customWidth="1"/>
+    <col min="3" max="3" width="68" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>86</v>
       </c>
@@ -2854,7 +3052,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>89</v>
       </c>
@@ -2865,7 +3063,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>92</v>
       </c>
@@ -2876,7 +3074,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>94</v>
       </c>
@@ -2887,7 +3085,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>96</v>
       </c>
@@ -2898,7 +3096,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>98</v>
       </c>
@@ -2909,7 +3107,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>100</v>
       </c>
@@ -2920,7 +3118,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>102</v>
       </c>
@@ -2931,7 +3129,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>104</v>
       </c>
@@ -2942,7 +3140,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>106</v>
       </c>
@@ -2953,7 +3151,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>108</v>
       </c>
@@ -2964,7 +3162,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>110</v>
       </c>
@@ -2975,7 +3173,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>111</v>
       </c>
@@ -2986,7 +3184,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>113</v>
       </c>
@@ -2997,7 +3195,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>114</v>
       </c>
@@ -3008,7 +3206,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>115</v>
       </c>
@@ -3019,7 +3217,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>116</v>
       </c>
@@ -3030,7 +3228,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>117</v>
       </c>
@@ -3041,7 +3239,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>119</v>
       </c>
@@ -3052,7 +3250,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>121</v>
       </c>
@@ -3063,7 +3261,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>123</v>
       </c>
@@ -3074,7 +3272,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>125</v>
       </c>
@@ -3085,7 +3283,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>127</v>
       </c>
@@ -3096,7 +3294,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>128</v>
       </c>
@@ -3107,7 +3305,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>129</v>
       </c>
@@ -3118,7 +3316,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>130</v>
       </c>
@@ -3129,7 +3327,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>131</v>
       </c>
@@ -3140,7 +3338,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>132</v>
       </c>
@@ -3151,7 +3349,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>133</v>
       </c>
@@ -3162,7 +3360,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>134</v>
       </c>
@@ -3173,7 +3371,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>135</v>
       </c>
@@ -3184,7 +3382,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>136</v>
       </c>
@@ -3195,7 +3393,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>138</v>
       </c>
@@ -3206,7 +3404,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>139</v>
       </c>
@@ -3217,7 +3415,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>140</v>
       </c>
@@ -3228,7 +3426,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>141</v>
       </c>
@@ -3239,7 +3437,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>142</v>
       </c>
@@ -3250,7 +3448,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>143</v>
       </c>
@@ -3261,7 +3459,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>144</v>
       </c>
@@ -3272,7 +3470,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>145</v>
       </c>
@@ -3283,7 +3481,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>146</v>
       </c>
@@ -3294,7 +3492,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>147</v>
       </c>
@@ -3305,7 +3503,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>149</v>
       </c>
@@ -3316,7 +3514,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>150</v>
       </c>
@@ -3327,7 +3525,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>151</v>
       </c>
@@ -3338,7 +3536,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>152</v>
       </c>
@@ -3349,7 +3547,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>153</v>
       </c>
@@ -3360,7 +3558,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>154</v>
       </c>
@@ -3371,7 +3569,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>155</v>
       </c>
@@ -3382,7 +3580,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>156</v>
       </c>
@@ -3393,7 +3591,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>157</v>
       </c>
@@ -3404,7 +3602,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>158</v>
       </c>
@@ -3415,7 +3613,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>160</v>
       </c>
@@ -3426,7 +3624,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>161</v>
       </c>
@@ -3437,7 +3635,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>162</v>
       </c>
@@ -3448,7 +3646,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>163</v>
       </c>
@@ -3459,7 +3657,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>164</v>
       </c>
@@ -3470,7 +3668,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>165</v>
       </c>
@@ -3481,7 +3679,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>166</v>
       </c>
@@ -3492,7 +3690,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>167</v>
       </c>
@@ -3503,7 +3701,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>168</v>
       </c>
@@ -3514,7 +3712,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>169</v>
       </c>
@@ -3525,7 +3723,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>171</v>
       </c>
@@ -3536,7 +3734,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>172</v>
       </c>
@@ -3547,7 +3745,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>173</v>
       </c>
@@ -3558,7 +3756,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>174</v>
       </c>
@@ -3569,7 +3767,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>175</v>
       </c>
@@ -3580,7 +3778,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>176</v>
       </c>
@@ -3591,7 +3789,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>177</v>
       </c>
@@ -3602,7 +3800,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>178</v>
       </c>
@@ -3613,7 +3811,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>179</v>
       </c>
@@ -3625,12 +3823,415 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85276AB-6D20-4E24-BA3A-1994BA2758AE}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12">
+        <v>8.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE23C598-F713-4636-BBE4-4C6254A2B82A}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" t="s">
+        <v>242</v>
+      </c>
+      <c r="D18">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/backend/data/database.xlsx
+++ b/backend/data/database.xlsx
@@ -8,24 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ledts\calculator\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900C2FA7-A769-4089-8300-AE20A465274E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722153BC-72B0-48E4-85E5-5B910F111784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15600" yWindow="0" windowWidth="36000" windowHeight="20880" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScreenTypes" sheetId="1" r:id="rId1"/>
     <sheet name="PixelSteps" sheetId="2" r:id="rId2"/>
     <sheet name="Cabinets" sheetId="3" r:id="rId3"/>
     <sheet name="IngressProtection" sheetId="4" r:id="rId4"/>
-    <sheet name="PartsPriceUsd" sheetId="6" r:id="rId5"/>
-    <sheet name="PartsPriceRub" sheetId="5" r:id="rId6"/>
+    <sheet name="PartsPrice" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="245">
   <si>
     <t>name</t>
   </si>
@@ -276,12 +275,6 @@
     <t>P4, P4 Pro, P3.07, P3.07 Pro, P2.5, P2.5 Pro, P2, P1.86, P1.86 Pro</t>
   </si>
   <si>
-    <t>480*640_C AL фронтальный интерьерный шаг пикселя до 1.86</t>
-  </si>
-  <si>
-    <t>480*640_C AL фронтальный интерьерный шаг пикселя ниже 1.86</t>
-  </si>
-  <si>
     <t>P1.66 Pro, P1.53 Pro, P1.37 Pro, P1.25 Pro</t>
   </si>
   <si>
@@ -576,18 +569,6 @@
     <t>БП200</t>
   </si>
   <si>
-    <t>detail</t>
-  </si>
-  <si>
-    <t>priceUSD</t>
-  </si>
-  <si>
-    <t>priceRUB</t>
-  </si>
-  <si>
-    <t>detailEn</t>
-  </si>
-  <si>
     <t>PU200</t>
   </si>
   <si>
@@ -766,6 +747,18 @@
   </si>
   <si>
     <t>flexibleScreen</t>
+  </si>
+  <si>
+    <t>640*480_C AL фронтальный интерьерный шаг пикселя до 1.86</t>
+  </si>
+  <si>
+    <t>640*480_C AL фронтальный интерьерный шаг пикселя ниже 1.86</t>
+  </si>
+  <si>
+    <t>nameEn</t>
+  </si>
+  <si>
+    <t>priceRub</t>
   </si>
 </sst>
 </file>
@@ -2146,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2181,7 +2174,7 @@
         <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>50</v>
@@ -2234,7 +2227,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" s="2">
         <v>300</v>
@@ -2287,7 +2280,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F3" s="2">
         <v>200</v>
@@ -2340,7 +2333,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F4" s="2">
         <v>200</v>
@@ -2393,7 +2386,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="2">
         <v>200</v>
@@ -2446,7 +2439,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="2">
         <v>200</v>
@@ -2499,7 +2492,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F7" s="2">
         <v>200</v>
@@ -2552,7 +2545,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F8" s="2">
         <v>200</v>
@@ -2605,7 +2598,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F9" s="2">
         <v>200</v>
@@ -2658,7 +2651,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F10" s="2">
         <v>200</v>
@@ -2711,7 +2704,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F11" s="2">
         <v>300</v>
@@ -2764,7 +2757,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F12" s="2">
         <v>200</v>
@@ -2817,7 +2810,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F13" s="2">
         <v>200</v>
@@ -2870,7 +2863,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F14" s="2">
         <v>200</v>
@@ -2911,19 +2904,19 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>241</v>
       </c>
       <c r="B15" s="1">
+        <v>640</v>
+      </c>
+      <c r="C15" s="1">
         <v>480</v>
-      </c>
-      <c r="C15" s="1">
-        <v>640</v>
       </c>
       <c r="D15" s="2">
         <v>6</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F15" s="2">
         <v>200</v>
@@ -2964,19 +2957,19 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>242</v>
       </c>
       <c r="B16" s="1">
+        <v>640</v>
+      </c>
+      <c r="C16" s="1">
         <v>480</v>
-      </c>
-      <c r="C16" s="1">
-        <v>640</v>
       </c>
       <c r="D16" s="2">
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F16" s="2">
         <v>300</v>
@@ -2991,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>6</v>
@@ -3043,783 +3036,783 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3834,10 +3827,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85276AB-6D20-4E24-BA3A-1994BA2758AE}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3848,24 +3841,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c r="C1" t="s">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -3873,10 +3866,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -3884,7 +3877,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -3895,10 +3888,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -3906,7 +3899,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -3917,10 +3910,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -3928,10 +3921,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C8">
         <v>6.5</v>
@@ -3939,10 +3932,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C9">
         <v>8.5</v>
@@ -3950,10 +3943,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C10">
         <v>8.5</v>
@@ -3961,10 +3954,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C11">
         <v>8.5</v>
@@ -3972,266 +3965,232 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C12">
         <v>8.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B29" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>208</v>
+      </c>
+      <c r="B30" t="s">
+        <v>237</v>
+      </c>
+      <c r="D30">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" t="s">
+        <v>238</v>
+      </c>
+      <c r="D31">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" t="s">
+        <v>239</v>
+      </c>
+      <c r="D32">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" t="s">
+        <v>240</v>
+      </c>
+      <c r="D33">
+        <v>15000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE23C598-F713-4636-BBE4-4C6254A2B82A}">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D4">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B5" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" t="s">
-        <v>239</v>
-      </c>
-      <c r="D9">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B11" t="s">
-        <v>231</v>
-      </c>
-      <c r="D11">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B12" t="s">
-        <v>233</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" t="s">
-        <v>242</v>
-      </c>
-      <c r="D18">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" t="s">
-        <v>243</v>
-      </c>
-      <c r="D19">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>215</v>
-      </c>
-      <c r="B20" t="s">
-        <v>244</v>
-      </c>
-      <c r="D20">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" t="s">
-        <v>245</v>
-      </c>
-      <c r="D21">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>217</v>
-      </c>
-      <c r="B22" t="s">
-        <v>246</v>
-      </c>
-      <c r="D22">
-        <v>15000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/backend/data/database.xlsx
+++ b/backend/data/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ledts\calculator\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8D9E57-4E4E-459C-ABAE-8B164CD89ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBC8486-74EB-467A-934B-F58508694267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25590" yWindow="0" windowWidth="26010" windowHeight="20880" tabRatio="1000" firstSheet="27" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="1000" firstSheet="32" activeTab="39" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screen_type" sheetId="22" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2675" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="558">
   <si>
     <t>уличный</t>
   </si>
@@ -1744,17 +1744,54 @@
   <si>
     <t>160x160</t>
   </si>
+  <si>
+    <t>LC-CA-576575</t>
+  </si>
+  <si>
+    <t>Кабинет стальной задний уличный</t>
+  </si>
+  <si>
+    <t>Кабинет стальной фронтальный уличный</t>
+  </si>
+  <si>
+    <t>Кабинет стальной задний интерьерный</t>
+  </si>
+  <si>
+    <t>Кабинет стальной фронтальный интерьерный</t>
+  </si>
+  <si>
+    <t>NN-CSRO</t>
+  </si>
+  <si>
+    <t>NN-CSFO</t>
+  </si>
+  <si>
+    <t>NN-CSRI</t>
+  </si>
+  <si>
+    <t>NN-CSFI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1818,21 +1855,22 @@
       <charset val="204"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1842,6 +1880,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1855,94 +1899,154 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{5033A922-AEBE-4CDD-9FD8-03B9F0448B35}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{A577549E-2D2E-4165-A7C2-32844398B967}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{C64E5450-0B80-4AD3-8FC7-937A00180176}"/>
+    <cellStyle name="Normal 5" xfId="4" xr:uid="{ED67CD53-254C-476B-A43A-A6D366E9B16E}"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="57">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2696,10 +2800,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>513</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>183</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2885,7 +2989,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2962,7 +3066,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3994,7 +4098,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="duplicateValues" dxfId="42" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4523,9 +4627,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:D45" xr:uid="{D1557351-AC75-4275-84AC-10988B807ED9}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4582,16 +4686,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="27">
+      <c r="A3" s="26">
         <v>320160</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>370</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="26">
         <v>320</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="26">
         <v>160</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -4599,16 +4703,16 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="27">
+      <c r="A4" s="26">
         <v>192192</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>408</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="26">
         <v>192</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="26">
         <v>192</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -4616,16 +4720,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>250250</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="26">
         <v>250</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <v>250</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -4633,16 +4737,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="27">
+      <c r="A6" s="26">
         <v>240120</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>421</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <v>240</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="26">
         <v>120</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -4650,7 +4754,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="27">
+      <c r="A7" s="26">
         <v>256128</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4702,7 +4806,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E2">
-    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4710,16 +4814,15 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A087147-0889-47E2-B7E5-6733E2DA4BB8}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D29"/>
+      <selection activeCell="A30" sqref="A30:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72.85546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
@@ -4754,7 +4857,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="30" t="s">
         <v>306</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4763,12 +4866,12 @@
       <c r="C3" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>409</v>
+      <c r="D3" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="30" t="s">
         <v>307</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4777,12 +4880,12 @@
       <c r="C4" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>409</v>
+      <c r="D4" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="30" t="s">
         <v>308</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4791,8 +4894,8 @@
       <c r="C5" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>409</v>
+      <c r="D5" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4819,8 +4922,8 @@
       <c r="C7" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>409</v>
+      <c r="D7" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4833,8 +4936,8 @@
       <c r="C8" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>409</v>
+      <c r="D8" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4847,8 +4950,8 @@
       <c r="C9" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>409</v>
+      <c r="D9" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4861,8 +4964,8 @@
       <c r="C10" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>409</v>
+      <c r="D10" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4875,8 +4978,8 @@
       <c r="C11" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>409</v>
+      <c r="D11" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4889,8 +4992,8 @@
       <c r="C12" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>409</v>
+      <c r="D12" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4904,7 +5007,7 @@
         <v>391</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4918,7 +5021,7 @@
         <v>392</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4932,7 +5035,7 @@
         <v>393</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4946,7 +5049,7 @@
         <v>394</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4960,7 +5063,7 @@
         <v>395</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4974,7 +5077,7 @@
         <v>396</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -4988,7 +5091,7 @@
         <v>397</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -5002,7 +5105,7 @@
         <v>398</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -5016,7 +5119,7 @@
         <v>406</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -5030,7 +5133,7 @@
         <v>407</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -5044,7 +5147,7 @@
         <v>404</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -5058,7 +5161,7 @@
         <v>399</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -5072,7 +5175,7 @@
         <v>405</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -5086,7 +5189,7 @@
         <v>400</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -5100,7 +5203,7 @@
         <v>401</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -5114,7 +5217,7 @@
         <v>402</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -5128,23 +5231,82 @@
         <v>403</v>
       </c>
       <c r="D29" s="19" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>411</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:C12" xr:uid="{3A087147-0889-47E2-B7E5-6733E2DA4BB8}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A29">
-    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="37" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="duplicateValues" dxfId="36" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:A33">
+    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5155,7 +5317,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5166,7 +5328,7 @@
     <col min="4" max="4" width="5.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.140625" style="6"/>
-    <col min="8" max="8" width="9.140625" style="30"/>
+    <col min="8" max="8" width="9.140625" style="29"/>
     <col min="9" max="15" width="9.140625" style="6"/>
     <col min="16" max="16" width="15.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
@@ -5210,10 +5372,10 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="29">
+      <c r="A2" s="28">
         <v>320160</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>370</v>
       </c>
       <c r="C2" s="6">
@@ -5243,10 +5405,10 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="29">
+      <c r="A3" s="28">
         <v>480480</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>372</v>
       </c>
       <c r="C3" s="6">
@@ -5276,10 +5438,10 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="29">
+      <c r="A4" s="28">
         <v>5001000</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>365</v>
       </c>
       <c r="C4" s="6">
@@ -5309,10 +5471,10 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="29">
+      <c r="A5" s="28">
         <v>500500</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>364</v>
       </c>
       <c r="C5" s="6">
@@ -5342,10 +5504,10 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="29">
+      <c r="A6" s="28">
         <v>512512</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>366</v>
       </c>
       <c r="C6" s="6">
@@ -5375,10 +5537,10 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="29">
+      <c r="A7" s="28">
         <v>576576</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>367</v>
       </c>
       <c r="C7" s="6">
@@ -5408,10 +5570,10 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="29">
+      <c r="A8" s="28">
         <v>640480</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>369</v>
       </c>
       <c r="C8" s="6">
@@ -5441,10 +5603,10 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
+      <c r="A9" s="28">
         <v>640576</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>368</v>
       </c>
       <c r="C9" s="6">
@@ -5474,10 +5636,10 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="29">
+      <c r="A10" s="28">
         <v>640640</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>363</v>
       </c>
       <c r="C10" s="6">
@@ -5507,10 +5669,10 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="29">
+      <c r="A11" s="28">
         <v>9601120</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>373</v>
       </c>
       <c r="C11" s="6">
@@ -5540,10 +5702,10 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="29">
+      <c r="A12" s="28">
         <v>960960</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>371</v>
       </c>
       <c r="C12" s="6">
@@ -5590,120 +5752,130 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
+      <c r="P14" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>0</v>
+      </c>
+      <c r="R14" s="29">
+        <v>0</v>
+      </c>
+      <c r="S14" s="29">
+        <v>0</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
     </row>
     <row r="17" spans="16:20" x14ac:dyDescent="0.2">
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
     </row>
     <row r="18" spans="16:20" x14ac:dyDescent="0.2">
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
     </row>
     <row r="19" spans="16:20" x14ac:dyDescent="0.2">
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
     </row>
     <row r="20" spans="16:20" x14ac:dyDescent="0.2">
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
     </row>
     <row r="21" spans="16:20" x14ac:dyDescent="0.2">
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
     </row>
     <row r="22" spans="16:20" x14ac:dyDescent="0.2">
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
     </row>
     <row r="23" spans="16:20" x14ac:dyDescent="0.2">
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
     </row>
     <row r="24" spans="16:20" x14ac:dyDescent="0.2">
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
     </row>
     <row r="25" spans="16:20" x14ac:dyDescent="0.2">
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
     </row>
     <row r="26" spans="16:20" x14ac:dyDescent="0.2">
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
     </row>
     <row r="27" spans="16:20" x14ac:dyDescent="0.2">
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
     </row>
     <row r="28" spans="16:20" x14ac:dyDescent="0.2">
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
     </row>
     <row r="29" spans="16:20" x14ac:dyDescent="0.2">
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="35" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6260,10 +6432,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6330,7 +6502,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6398,7 +6570,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="52" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6641,7 +6813,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6673,7 +6845,7 @@
       <c r="A2" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>476</v>
       </c>
     </row>
@@ -8362,9 +8534,11 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94216276-993F-46D5-B5DC-2B44F8AC08FA}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:A33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8604,12 +8778,47 @@
         <v>488</v>
       </c>
     </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A29">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:A33">
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8677,10 +8886,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8688,9 +8897,11 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838D319D-4E21-4D24-B515-3B21CF708CB5}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:A33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8930,12 +9141,47 @@
         <v>490</v>
       </c>
     </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A29">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:A33">
+    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8943,10 +9189,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503541A4-E68E-4BF4-89DE-3D69378B1D9F}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="A16" sqref="A16:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8981,7 +9227,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>466</v>
@@ -8989,15 +9235,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>466</v>
@@ -9005,23 +9251,23 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>312</v>
+        <v>548</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>465</v>
@@ -9029,47 +9275,47 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>379</v>
+      <c r="A13" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>379</v>
+      <c r="A14" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>380</v>
+      <c r="A15" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>465</v>
@@ -9077,7 +9323,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>384</v>
+        <v>553</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>466</v>
@@ -9085,21 +9331,38 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>385</v>
+        <v>554</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>465</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:A17">
-    <cfRule type="duplicateValues" dxfId="25" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:A19">
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9107,10 +9370,10 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0D754A-7366-44A6-B051-72C1244AB996}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A15" sqref="A15:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9139,7 +9402,7 @@
       <c r="A3" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="1" t="s">
         <v>455</v>
       </c>
     </row>
@@ -9147,227 +9410,138 @@
       <c r="A4" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>455</v>
+      <c r="B4" s="1" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B5" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B6" s="25"/>
+        <v>308</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B7" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B8" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>454</v>
+        <v>310</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B10" s="25"/>
+        <v>311</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>455</v>
+        <v>312</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B14" s="1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="B13" s="25"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B14" s="25"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B15" s="25"/>
+        <v>553</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B16" s="25"/>
+        <v>554</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="B17" s="25"/>
+        <v>555</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B18" s="25"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="B19" s="25"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="B20" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="B21" s="25"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B22" s="25"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="B23" s="25"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B24" s="25"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="A15:A18">
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3593EFF-45F7-4A29-8DE9-45EA98503C83}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9473,158 +9647,42 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>374</v>
+        <v>553</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>375</v>
+        <v>554</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>378</v>
+        <v>555</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>376</v>
+        <v>556</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="B21" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:A29">
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+  <conditionalFormatting sqref="A13:A16">
+    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9632,10 +9690,10 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62A5FFB-C134-40B1-8680-30D60A8885DF}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9643,7 +9701,7 @@
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>418</v>
       </c>
@@ -9651,7 +9709,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>417</v>
       </c>
@@ -9659,7 +9717,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>306</v>
       </c>
@@ -9667,7 +9725,7 @@
         <v>640640</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>307</v>
       </c>
@@ -9675,7 +9733,7 @@
         <v>500500</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>308</v>
       </c>
@@ -9683,7 +9741,7 @@
         <v>5001000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>309</v>
       </c>
@@ -9691,7 +9749,7 @@
         <v>512512</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>310</v>
       </c>
@@ -9699,15 +9757,15 @@
         <v>576576</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>311</v>
       </c>
       <c r="B8" s="6">
-        <v>640576</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>640640</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>312</v>
       </c>
@@ -9715,7 +9773,7 @@
         <v>640480</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>313</v>
       </c>
@@ -9723,7 +9781,7 @@
         <v>320160</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>314</v>
       </c>
@@ -9731,7 +9789,7 @@
         <v>960960</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>315</v>
       </c>
@@ -9739,186 +9797,74 @@
         <v>960960</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>374</v>
+        <v>553</v>
       </c>
       <c r="B13" s="6">
-        <v>480480</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>375</v>
+        <v>554</v>
       </c>
       <c r="B14" s="6">
-        <v>500500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>378</v>
+        <v>555</v>
       </c>
       <c r="B15" s="6">
-        <v>5001000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>376</v>
+        <v>556</v>
       </c>
       <c r="B16" s="6">
-        <v>512512</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="B17" s="6">
-        <v>576576</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B18" s="6">
-        <v>640640</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="B19" s="6">
-        <v>640640</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="B20" s="6">
-        <v>640480</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="B21" s="6">
-        <v>960960</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B22" s="6">
-        <v>9601120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="B23" s="6">
-        <v>960960</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B24" s="6">
-        <v>960960</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="B25" s="6">
-        <v>960960</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="B26" s="6">
-        <v>500500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="B27" s="6">
-        <v>500500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="B28" s="6">
-        <v>5001000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="B29" s="6">
-        <v>5001000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F42" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F25" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:A29">
+  <conditionalFormatting sqref="A13:A16">
     <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9928,23 +9874,25 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330D0EDA-4CC0-4D25-885C-C1C08E778A60}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41:L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="45" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>418</v>
       </c>
@@ -9952,7 +9900,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>417</v>
       </c>
@@ -9960,560 +9908,387 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="19"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="O3" s="31"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B4" s="19"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="K10" s="32"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="K11" s="32"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B5" s="19"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B6" s="19"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B7" s="19"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B8" s="19"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B9" s="19"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B10" s="19"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="L25" s="33"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="L26" s="34"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="L27" s="34"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="L28" s="34"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="L29" s="34"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="34"/>
+      <c r="L30" s="34"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="34"/>
+      <c r="L31" s="34"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E32" s="34"/>
+      <c r="L32" s="34"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" s="34"/>
+      <c r="L33" s="34"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B11" s="19"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B12" s="19"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>376</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>376</v>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>377</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>377</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>379</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B39" s="1" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>379</v>
+      <c r="E41" s="36"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>379</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="B44" s="19"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="B45" s="19"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>143</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11032,10 +10807,10 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAADBBE6-1391-4512-B020-56872804993A}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11088,74 +10863,54 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>512512</v>
+        <v>576576</v>
       </c>
       <c r="B6" s="6">
-        <v>256128</v>
+        <v>192192</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>576576</v>
+        <v>640480</v>
       </c>
       <c r="B7" s="6">
-        <v>192192</v>
+        <v>320160</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>640576</v>
+        <v>320160</v>
       </c>
       <c r="B8" s="6">
-        <v>320192</v>
+        <v>320160</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>640480</v>
+        <v>960960</v>
       </c>
       <c r="B9" s="6">
         <v>320160</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>320160</v>
-      </c>
-      <c r="B10" s="6">
-        <v>320160</v>
-      </c>
-    </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>960960</v>
-      </c>
-      <c r="B11" s="6">
-        <v>320160</v>
-      </c>
+      <c r="A11"/>
+      <c r="B11"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>480480</v>
-      </c>
-      <c r="B12" s="6">
-        <v>160160</v>
-      </c>
+      <c r="A12"/>
+      <c r="B12"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>9601120</v>
-      </c>
-      <c r="B13" s="6">
-        <v>320160</v>
-      </c>
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15"/>
       <c r="B15"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16"/>
       <c r="B16"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -11180,15 +10935,19 @@
       <c r="B23"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24"/>
       <c r="B24"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25"/>
       <c r="B25"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26"/>
       <c r="B26"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27"/>
       <c r="B27"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -11234,22 +10993,6 @@
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39"/>
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40"/>
-      <c r="B40"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41"/>
-      <c r="B41"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42"/>
-      <c r="B42"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
@@ -11340,7 +11083,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A2">
     <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
@@ -11410,7 +11153,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11420,8 +11163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E20C1A-8A21-41E0-9FF7-195B3A3BE931}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AL56" sqref="AL56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13651,7 +13394,7 @@
       <c r="A3" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13659,7 +13402,7 @@
       <c r="A4" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13667,7 +13410,7 @@
       <c r="A5" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13675,7 +13418,7 @@
       <c r="A6" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13683,7 +13426,7 @@
       <c r="A7" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="26">
         <v>192192</v>
       </c>
     </row>
@@ -13691,7 +13434,7 @@
       <c r="A8" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13699,7 +13442,7 @@
       <c r="A9" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13707,7 +13450,7 @@
       <c r="A10" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13715,7 +13458,7 @@
       <c r="A11" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13723,7 +13466,7 @@
       <c r="A12" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13731,7 +13474,7 @@
       <c r="A13" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13739,7 +13482,7 @@
       <c r="A14" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13747,7 +13490,7 @@
       <c r="A15" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13755,7 +13498,7 @@
       <c r="A16" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13763,7 +13506,7 @@
       <c r="A17" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13771,7 +13514,7 @@
       <c r="A18" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13779,7 +13522,7 @@
       <c r="A19" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="26">
         <v>192192</v>
       </c>
     </row>
@@ -13787,7 +13530,7 @@
       <c r="A20" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="26">
         <v>192192</v>
       </c>
     </row>
@@ -13795,7 +13538,7 @@
       <c r="A21" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13803,7 +13546,7 @@
       <c r="A22" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13811,7 +13554,7 @@
       <c r="A23" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13819,7 +13562,7 @@
       <c r="A24" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13827,7 +13570,7 @@
       <c r="A25" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13835,7 +13578,7 @@
       <c r="A26" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13843,7 +13586,7 @@
       <c r="A27" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13851,7 +13594,7 @@
       <c r="A28" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="B28" s="27">
+      <c r="B28" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13859,7 +13602,7 @@
       <c r="A29" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13867,7 +13610,7 @@
       <c r="A30" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13875,7 +13618,7 @@
       <c r="A31" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13883,7 +13626,7 @@
       <c r="A32" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B32" s="27">
+      <c r="B32" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13891,7 +13634,7 @@
       <c r="A33" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33" s="26">
         <v>250250</v>
       </c>
     </row>
@@ -13899,7 +13642,7 @@
       <c r="A34" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13907,7 +13650,7 @@
       <c r="A35" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="26">
         <v>250250</v>
       </c>
     </row>
@@ -13915,7 +13658,7 @@
       <c r="A36" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="B36" s="27">
+      <c r="B36" s="26">
         <v>250250</v>
       </c>
     </row>
@@ -13923,7 +13666,7 @@
       <c r="A37" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="B37" s="27">
+      <c r="B37" s="26">
         <v>250250</v>
       </c>
     </row>
@@ -13931,7 +13674,7 @@
       <c r="A38" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B38" s="26">
         <v>250250</v>
       </c>
     </row>
@@ -13939,7 +13682,7 @@
       <c r="A39" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="B39" s="27">
+      <c r="B39" s="26">
         <v>250250</v>
       </c>
     </row>
@@ -13947,7 +13690,7 @@
       <c r="A40" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="B40" s="27">
+      <c r="B40" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13955,7 +13698,7 @@
       <c r="A41" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="B41" s="27">
+      <c r="B41" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13963,7 +13706,7 @@
       <c r="A42" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B42" s="27">
+      <c r="B42" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -13971,7 +13714,7 @@
       <c r="A43" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="B43" s="27">
+      <c r="B43" s="26">
         <v>240120</v>
       </c>
     </row>
@@ -13979,7 +13722,7 @@
       <c r="A44" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="B44" s="27">
+      <c r="B44" s="26">
         <v>240120</v>
       </c>
     </row>
@@ -13987,7 +13730,7 @@
       <c r="A45" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="B45" s="27">
+      <c r="B45" s="26">
         <v>320160</v>
       </c>
     </row>
@@ -14848,7 +14591,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A2">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
@@ -14882,10 +14625,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>478</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -14905,7 +14648,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="48" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14937,7 +14680,7 @@
       <c r="T2" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="U2" s="25" t="s">
         <v>476</v>
       </c>
     </row>
@@ -15563,10 +15306,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>529</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>528</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -15619,7 +15362,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15697,7 +15440,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16082,7 +15825,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16114,10 +15857,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>515</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>252</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -16125,10 +15868,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
+      <c r="A3" s="27">
         <v>1920</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="27">
         <v>1920</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -16136,10 +15879,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="28">
+      <c r="A4" s="27">
         <v>2880</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="27">
         <v>2880</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -16147,10 +15890,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="28">
+      <c r="A5" s="27">
         <v>3840</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="27">
         <v>3840</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -16158,10 +15901,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
+      <c r="A6" s="27">
         <v>6000</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="27">
         <v>6000</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -16169,10 +15912,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="28">
+      <c r="A7" s="27">
         <v>7680</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="27">
         <v>7680</v>
       </c>
       <c r="C7" s="6" t="s">

--- a/backend/data/database.xlsx
+++ b/backend/data/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ledts\calculator\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBC8486-74EB-467A-934B-F58508694267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B880FABC-D22A-4FF1-AFEF-930C5F4939F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="1000" firstSheet="32" activeTab="39" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="1000" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screen_type" sheetId="22" r:id="rId1"/>
@@ -67,7 +67,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">cabinet!$A$2:$C$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">module!$A$2:$D$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">module!$A$2:$D$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="576">
   <si>
     <t>уличный</t>
   </si>
@@ -1125,45 +1125,6 @@
   </si>
   <si>
     <t>LC-SMGI-Q25320160</t>
-  </si>
-  <si>
-    <t>SO-P297250250</t>
-  </si>
-  <si>
-    <t>SO-P10320160</t>
-  </si>
-  <si>
-    <t>SO-P391250250</t>
-  </si>
-  <si>
-    <t>SO-P391250250P</t>
-  </si>
-  <si>
-    <t>SO-P481250250P</t>
-  </si>
-  <si>
-    <t>SI-P297250250P</t>
-  </si>
-  <si>
-    <t>SI-P391250250P</t>
-  </si>
-  <si>
-    <t>GI-P153320160</t>
-  </si>
-  <si>
-    <t>GI-P3240120P</t>
-  </si>
-  <si>
-    <t>GI-P186320160</t>
-  </si>
-  <si>
-    <t>GI-P2320160</t>
-  </si>
-  <si>
-    <t>GI-P25240120P</t>
-  </si>
-  <si>
-    <t>GI-P137160320P</t>
   </si>
   <si>
     <t>NN-GI-P137160320P</t>
@@ -1774,12 +1735,105 @@
   <si>
     <t xml:space="preserve">P2 </t>
   </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q8 (320*160) 7680hz,outdoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q8 (320*160) 2880hz,outdoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q6.66 (320*160) 7680hz,outdoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q6.66 (320*160) 2880hz,outdoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q6 (192*192) 1920hz,outdoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q5 (320*160) 7680hz,outdoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q5 (320*160) 2880hz,outdoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q4 (320*160)7680hz,outdoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q4 (320*160) 2880hz,outdoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q3,07 (320*160) 7680hz,outdoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q3,07 (320*160) 2880hz,outdoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q2,5 (320*160) 7680hz,outdoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q4 (320*160) 6000hz,indoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q4 (320*160) 1920hz,indoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q3,07 (320*160) 6000hz,indoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q3,07 (320*160) 1920hz,indoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q3 (192*192) 3840hz,indoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q3 (192*192)1920hz,indoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q2,5 (320*160) 6000hz,indoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q2,5 (320*160) 3840hz,indoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q2 (320*160) 6000hz,indoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q2 (320*160) 3840hz,indoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q1,86 (320*160) 6000hz,indoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q1,86 (320*160) 3840hz,indoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q1,66 (320*160) 3840hz,indoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q1,53 (320*160) 6000hz,indoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q1,25 (320*160) 6000hz,indoor</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q1,86 (320*160) 6000hz,indoor,гибкий</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q2 (320*160) 6000hz,indoor,гибкий</t>
+  </si>
+  <si>
+    <t>QIANGLI, Q2,5 (320*160) 6000hz,indoor,гибкий</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1869,6 +1923,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1899,12 +1959,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1999,12 +2060,13 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{5033A922-AEBE-4CDD-9FD8-03B9F0448B35}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{A577549E-2D2E-4165-A7C2-32844398B967}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{C64E5450-0B80-4AD3-8FC7-937A00180176}"/>
     <cellStyle name="Normal 5" xfId="4" xr:uid="{ED67CD53-254C-476B-A43A-A6D366E9B16E}"/>
+    <cellStyle name="Normal 6" xfId="5" xr:uid="{31321808-6278-4398-B32B-0EC153BDC8A4}"/>
   </cellStyles>
   <dxfs count="57">
     <dxf>
@@ -2703,7 +2765,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2716,10 +2778,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>303</v>
@@ -2727,46 +2789,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>203</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>275</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>248</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -2790,10 +2852,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="B1" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>303</v>
@@ -2801,13 +2863,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>183</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2818,7 +2880,7 @@
         <v>500</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2829,7 +2891,7 @@
         <v>550</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2840,7 +2902,7 @@
         <v>600</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2851,7 +2913,7 @@
         <v>700</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2862,7 +2924,7 @@
         <v>800</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2873,7 +2935,7 @@
         <v>4500</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2884,7 +2946,7 @@
         <v>5000</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2895,7 +2957,7 @@
         <v>5500</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2906,7 +2968,7 @@
         <v>7000</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2934,7 +2996,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>240</v>
@@ -2945,13 +3007,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>148</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2959,10 +3021,10 @@
         <v>244</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2970,21 +3032,21 @@
         <v>245</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -3011,7 +3073,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>297</v>
@@ -3028,40 +3090,40 @@
         <v>301</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>298</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>299</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -3113,7 +3175,7 @@
         <v>193</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3127,7 +3189,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3141,7 +3203,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3155,7 +3217,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3169,7 +3231,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3183,7 +3245,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3197,7 +3259,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3211,7 +3273,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -3225,7 +3287,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -3239,7 +3301,7 @@
         <v>34</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -3253,7 +3315,7 @@
         <v>36</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -3267,7 +3329,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -3281,7 +3343,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -3295,7 +3357,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -3309,7 +3371,7 @@
         <v>24</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3323,7 +3385,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3337,7 +3399,7 @@
         <v>28</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3351,7 +3413,7 @@
         <v>45</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3365,7 +3427,7 @@
         <v>47</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3379,7 +3441,7 @@
         <v>49</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3393,7 +3455,7 @@
         <v>51</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3407,7 +3469,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -3421,7 +3483,7 @@
         <v>39</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -3435,7 +3497,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -3449,7 +3511,7 @@
         <v>24</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3463,7 +3525,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3477,7 +3539,7 @@
         <v>28</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -3491,7 +3553,7 @@
         <v>45</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -3505,7 +3567,7 @@
         <v>47</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -3519,7 +3581,7 @@
         <v>49</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -3533,7 +3595,7 @@
         <v>51</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -3547,7 +3609,7 @@
         <v>18</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3561,7 +3623,7 @@
         <v>39</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3575,7 +3637,7 @@
         <v>22</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3589,7 +3651,7 @@
         <v>24</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -3603,7 +3665,7 @@
         <v>26</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -3617,7 +3679,7 @@
         <v>28</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -3631,7 +3693,7 @@
         <v>45</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -3645,7 +3707,7 @@
         <v>47</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -3659,7 +3721,7 @@
         <v>49</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -3673,7 +3735,7 @@
         <v>51</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -3687,7 +3749,7 @@
         <v>18</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -3701,7 +3763,7 @@
         <v>39</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -3715,7 +3777,7 @@
         <v>22</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -3729,7 +3791,7 @@
         <v>24</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -3743,7 +3805,7 @@
         <v>26</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -3757,7 +3819,7 @@
         <v>28</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -3771,7 +3833,7 @@
         <v>45</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -3785,7 +3847,7 @@
         <v>47</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -3799,7 +3861,7 @@
         <v>49</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -3813,7 +3875,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -3827,7 +3889,7 @@
         <v>18</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -3841,7 +3903,7 @@
         <v>39</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -3855,7 +3917,7 @@
         <v>22</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -3869,7 +3931,7 @@
         <v>24</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -3883,7 +3945,7 @@
         <v>26</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -3897,7 +3959,7 @@
         <v>28</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -3911,7 +3973,7 @@
         <v>45</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -3925,7 +3987,7 @@
         <v>47</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -3939,7 +4001,7 @@
         <v>49</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -3953,7 +4015,7 @@
         <v>51</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -3967,7 +4029,7 @@
         <v>18</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -3981,7 +4043,7 @@
         <v>39</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -3995,7 +4057,7 @@
         <v>22</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -4009,7 +4071,7 @@
         <v>24</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -4023,7 +4085,7 @@
         <v>26</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -4037,7 +4099,7 @@
         <v>28</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -4051,7 +4113,7 @@
         <v>45</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -4065,7 +4127,7 @@
         <v>32</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -4079,7 +4141,7 @@
         <v>34</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4093,7 +4155,7 @@
         <v>36</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -4111,16 +4173,16 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1557351-AC75-4275-84AC-10988B807ED9}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="6"/>
@@ -4128,10 +4190,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>238</v>
@@ -4142,491 +4204,440 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="B2" s="15"/>
+        <v>403</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>545</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>147</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>316</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>546</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>547</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>318</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>548</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>319</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>549</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>155</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>550</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>156</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>551</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>157</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>322</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>552</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>323</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>553</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>159</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>324</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>554</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>160</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>325</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>161</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>326</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>556</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>327</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>163</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>328</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>558</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>164</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>329</v>
       </c>
+      <c r="B16" s="2" t="s">
+        <v>559</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>165</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>330</v>
       </c>
+      <c r="B17" s="2" t="s">
+        <v>560</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>166</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>331</v>
       </c>
+      <c r="B18" s="2" t="s">
+        <v>561</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>332</v>
       </c>
+      <c r="B19" s="2" t="s">
+        <v>562</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>168</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>333</v>
       </c>
+      <c r="B20" s="2" t="s">
+        <v>563</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>334</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>564</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>335</v>
       </c>
+      <c r="B22" s="2" t="s">
+        <v>565</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>171</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>336</v>
       </c>
+      <c r="B23" s="2" t="s">
+        <v>566</v>
+      </c>
       <c r="C23" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>337</v>
       </c>
+      <c r="B24" s="2" t="s">
+        <v>567</v>
+      </c>
       <c r="C24" s="2" t="s">
         <v>173</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>338</v>
       </c>
+      <c r="B25" s="2" t="s">
+        <v>568</v>
+      </c>
       <c r="C25" s="2" t="s">
         <v>174</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>339</v>
       </c>
+      <c r="B26" s="2" t="s">
+        <v>569</v>
+      </c>
       <c r="C26" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>340</v>
       </c>
+      <c r="B27" s="2" t="s">
+        <v>570</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>176</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>341</v>
       </c>
+      <c r="B28" s="2" t="s">
+        <v>571</v>
+      </c>
       <c r="C28" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>342</v>
       </c>
+      <c r="B29" s="2" t="s">
+        <v>572</v>
+      </c>
       <c r="C29" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>343</v>
       </c>
+      <c r="B30" s="2" t="s">
+        <v>573</v>
+      </c>
       <c r="C30" s="6" t="s">
         <v>179</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>344</v>
       </c>
+      <c r="B31" s="2" t="s">
+        <v>574</v>
+      </c>
       <c r="C31" s="6" t="s">
         <v>180</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>345</v>
       </c>
+      <c r="B32" s="2" t="s">
+        <v>575</v>
+      </c>
       <c r="C32" s="6" t="s">
         <v>181</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D45" xr:uid="{D1557351-AC75-4275-84AC-10988B807ED9}"/>
+  <autoFilter ref="A2:D32" xr:uid="{D1557351-AC75-4275-84AC-10988B807ED9}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A2:B2">
     <cfRule type="duplicateValues" dxfId="45" priority="1"/>
@@ -4653,16 +4664,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>303</v>
@@ -4670,10 +4681,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>149</v>
@@ -4682,7 +4693,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4690,7 +4701,7 @@
         <v>320160</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="C3" s="26">
         <v>320</v>
@@ -4699,7 +4710,7 @@
         <v>160</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4707,7 +4718,7 @@
         <v>192192</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="C4" s="26">
         <v>192</v>
@@ -4716,7 +4727,7 @@
         <v>192</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4724,7 +4735,7 @@
         <v>250250</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C5" s="26">
         <v>250</v>
@@ -4733,7 +4744,7 @@
         <v>250</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -4741,7 +4752,7 @@
         <v>240120</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="C6" s="26">
         <v>240</v>
@@ -4750,7 +4761,7 @@
         <v>120</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -4758,7 +4769,7 @@
         <v>256128</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="C7" s="3">
         <v>256</v>
@@ -4767,7 +4778,7 @@
         <v>128</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4775,7 +4786,7 @@
         <v>320192</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="C8" s="6">
         <v>320</v>
@@ -4784,7 +4795,7 @@
         <v>192</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4792,7 +4803,7 @@
         <v>160160</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="C9" s="6">
         <v>160</v>
@@ -4801,7 +4812,7 @@
         <v>160</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -4830,13 +4841,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>199</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>303</v>
@@ -4844,7 +4855,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>147</v>
@@ -4853,7 +4864,7 @@
         <v>146</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4867,7 +4878,7 @@
         <v>287</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4881,7 +4892,7 @@
         <v>288</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4895,7 +4906,7 @@
         <v>289</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4909,7 +4920,7 @@
         <v>290</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4923,7 +4934,7 @@
         <v>291</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4937,7 +4948,7 @@
         <v>292</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4951,7 +4962,7 @@
         <v>293</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4965,7 +4976,7 @@
         <v>294</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4979,7 +4990,7 @@
         <v>295</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4993,301 +5004,301 @@
         <v>296</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>396</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>400</v>
-      </c>
       <c r="D26" s="19" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="D29" s="19" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -5299,14 +5310,14 @@
   <conditionalFormatting sqref="A13:A29">
     <cfRule type="duplicateValues" dxfId="42" priority="2"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A30:A33">
+    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="41" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="duplicateValues" dxfId="40" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:A33">
-    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5340,32 +5351,32 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>303</v>
       </c>
       <c r="H1" s="6"/>
       <c r="P1" s="6" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="T1" s="6" t="s">
         <v>303</v>
@@ -5376,7 +5387,7 @@
         <v>320160</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="C2" s="6">
         <v>320</v>
@@ -5385,14 +5396,14 @@
         <v>160</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="H2" s="6"/>
       <c r="P2" s="9" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>149</v>
@@ -5401,7 +5412,7 @@
         <v>150</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -5409,7 +5420,7 @@
         <v>480480</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="C3" s="6">
         <v>480</v>
@@ -5418,14 +5429,14 @@
         <v>480</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="H3" s="6"/>
       <c r="P3" s="6">
         <v>640640</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="R3" s="6">
         <v>640</v>
@@ -5434,7 +5445,7 @@
         <v>640</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -5442,7 +5453,7 @@
         <v>5001000</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="C4" s="6">
         <v>500</v>
@@ -5451,14 +5462,14 @@
         <v>1000</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="H4" s="6"/>
       <c r="P4" s="6">
         <v>500500</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="R4" s="6">
         <v>500</v>
@@ -5467,7 +5478,7 @@
         <v>500</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -5475,7 +5486,7 @@
         <v>500500</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C5" s="6">
         <v>500</v>
@@ -5484,14 +5495,14 @@
         <v>500</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="H5" s="6"/>
       <c r="P5" s="6">
         <v>5001000</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="R5" s="6">
         <v>512</v>
@@ -5500,7 +5511,7 @@
         <v>1000</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -5508,7 +5519,7 @@
         <v>512512</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C6" s="6">
         <v>512</v>
@@ -5517,14 +5528,14 @@
         <v>512</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="H6" s="6"/>
       <c r="P6" s="6">
         <v>512512</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="R6" s="6">
         <v>576</v>
@@ -5533,7 +5544,7 @@
         <v>512</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -5541,7 +5552,7 @@
         <v>576576</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="C7" s="6">
         <v>576</v>
@@ -5550,14 +5561,14 @@
         <v>576</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="H7" s="6"/>
       <c r="P7" s="6">
         <v>576576</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="R7" s="6">
         <v>640</v>
@@ -5566,7 +5577,7 @@
         <v>576</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -5574,7 +5585,7 @@
         <v>640480</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="C8" s="6">
         <v>640</v>
@@ -5583,14 +5594,14 @@
         <v>480</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="H8" s="6"/>
       <c r="P8" s="6">
         <v>640576</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="R8" s="6">
         <v>640</v>
@@ -5599,7 +5610,7 @@
         <v>576</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -5607,7 +5618,7 @@
         <v>640576</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="C9" s="6">
         <v>640</v>
@@ -5616,14 +5627,14 @@
         <v>576</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="H9" s="6"/>
       <c r="P9" s="6">
         <v>640480</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="R9" s="6">
         <v>320</v>
@@ -5632,7 +5643,7 @@
         <v>480</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -5640,7 +5651,7 @@
         <v>640640</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="C10" s="6">
         <v>640</v>
@@ -5649,14 +5660,14 @@
         <v>640</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="H10" s="6"/>
       <c r="P10" s="6">
         <v>320160</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="R10" s="6">
         <v>960</v>
@@ -5665,7 +5676,7 @@
         <v>160</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -5673,7 +5684,7 @@
         <v>9601120</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="C11" s="6">
         <v>960</v>
@@ -5682,14 +5693,14 @@
         <v>1120</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="H11" s="6"/>
       <c r="P11" s="6">
         <v>960960</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="R11" s="6">
         <v>960</v>
@@ -5698,7 +5709,7 @@
         <v>960</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -5706,7 +5717,7 @@
         <v>960960</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="C12" s="6">
         <v>960</v>
@@ -5715,14 +5726,14 @@
         <v>960</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="H12" s="6"/>
       <c r="P12" s="6">
         <v>480480</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="R12" s="6">
         <v>480</v>
@@ -5731,7 +5742,7 @@
         <v>480</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -5739,7 +5750,7 @@
         <v>9601120</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="R13" s="6">
         <v>960</v>
@@ -5748,7 +5759,7 @@
         <v>1120</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -5765,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -5906,7 +5917,7 @@
         <v>274</v>
       </c>
       <c r="C1" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>303</v>
@@ -5923,7 +5934,7 @@
         <v>146</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5931,13 +5942,13 @@
         <v>205</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5945,13 +5956,13 @@
         <v>206</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5959,13 +5970,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5973,13 +5984,13 @@
         <v>207</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5987,13 +5998,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -6001,13 +6012,13 @@
         <v>141</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6015,13 +6026,13 @@
         <v>208</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -6029,13 +6040,13 @@
         <v>209</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -6043,13 +6054,13 @@
         <v>210</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6057,13 +6068,13 @@
         <v>211</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6071,13 +6082,13 @@
         <v>212</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6085,13 +6096,13 @@
         <v>142</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -6099,13 +6110,13 @@
         <v>138</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6113,13 +6124,13 @@
         <v>139</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -6127,13 +6138,13 @@
         <v>231</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>234</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -6141,13 +6152,13 @@
         <v>213</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -6155,13 +6166,13 @@
         <v>216</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -6169,13 +6180,13 @@
         <v>217</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -6183,13 +6194,13 @@
         <v>218</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -6197,13 +6208,13 @@
         <v>219</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -6211,13 +6222,13 @@
         <v>220</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -6225,13 +6236,13 @@
         <v>221</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -6239,13 +6250,13 @@
         <v>222</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -6253,13 +6264,13 @@
         <v>223</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -6267,13 +6278,13 @@
         <v>224</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>132</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -6281,13 +6292,13 @@
         <v>225</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -6295,13 +6306,13 @@
         <v>226</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -6309,13 +6320,13 @@
         <v>227</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -6323,13 +6334,13 @@
         <v>228</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -6337,13 +6348,13 @@
         <v>229</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>137</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -6351,13 +6362,13 @@
         <v>232</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>235</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -6365,13 +6376,13 @@
         <v>214</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -6379,13 +6390,13 @@
         <v>204</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -6393,13 +6404,13 @@
         <v>233</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>236</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -6407,13 +6418,13 @@
         <v>215</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -6421,13 +6432,13 @@
         <v>219</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -6458,7 +6469,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>256</v>
@@ -6469,35 +6480,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>253</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>254</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>255</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -6526,7 +6537,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>200</v>
@@ -6543,29 +6554,29 @@
         <v>144</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -6580,7 +6591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758A5D86-441E-4547-BFC0-37BF0DA3CA4E}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection sqref="A1:C20"/>
     </sheetView>
   </sheetViews>
@@ -6610,139 +6621,139 @@
         <v>260</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>262</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>305</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>304</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>261</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>263</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>264</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>265</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>266</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>268</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>269</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -6753,7 +6764,7 @@
         <v>270</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -6764,7 +6775,7 @@
         <v>271</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -6775,29 +6786,29 @@
         <v>272</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>273</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -6808,7 +6819,7 @@
         <v>267</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -6835,26 +6846,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="B1" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="B3" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -6879,42 +6890,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -6939,50 +6950,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -7009,7 +7020,7 @@
         <v>302</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -7017,7 +7028,7 @@
         <v>230</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -7025,7 +7036,7 @@
         <v>205</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -7033,7 +7044,7 @@
         <v>206</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -7041,7 +7052,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -7049,7 +7060,7 @@
         <v>207</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -7057,7 +7068,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -7065,7 +7076,7 @@
         <v>141</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -7073,7 +7084,7 @@
         <v>208</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -7081,7 +7092,7 @@
         <v>209</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -7089,7 +7100,7 @@
         <v>210</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -7097,7 +7108,7 @@
         <v>211</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -7105,7 +7116,7 @@
         <v>212</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -7113,7 +7124,7 @@
         <v>142</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -7121,7 +7132,7 @@
         <v>138</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -7129,7 +7140,7 @@
         <v>139</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -7137,7 +7148,7 @@
         <v>231</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -7145,7 +7156,7 @@
         <v>213</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -7153,7 +7164,7 @@
         <v>216</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -7161,7 +7172,7 @@
         <v>217</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -7169,7 +7180,7 @@
         <v>218</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -7177,7 +7188,7 @@
         <v>219</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -7185,7 +7196,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -7193,7 +7204,7 @@
         <v>221</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -7201,7 +7212,7 @@
         <v>222</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -7209,7 +7220,7 @@
         <v>223</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -7217,7 +7228,7 @@
         <v>224</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -7225,7 +7236,7 @@
         <v>225</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -7233,7 +7244,7 @@
         <v>226</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -7241,7 +7252,7 @@
         <v>227</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -7249,7 +7260,7 @@
         <v>228</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -7257,7 +7268,7 @@
         <v>229</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -7265,7 +7276,7 @@
         <v>232</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -7273,7 +7284,7 @@
         <v>214</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -7281,7 +7292,7 @@
         <v>204</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -7289,7 +7300,7 @@
         <v>233</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -7297,7 +7308,7 @@
         <v>215</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -7305,7 +7316,7 @@
         <v>219</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -7348,7 +7359,7 @@
         <v>205</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -7356,7 +7367,7 @@
         <v>206</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -7364,7 +7375,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -7372,7 +7383,7 @@
         <v>207</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -7380,7 +7391,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -7396,7 +7407,7 @@
         <v>208</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -7404,7 +7415,7 @@
         <v>209</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -7412,7 +7423,7 @@
         <v>210</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -7420,7 +7431,7 @@
         <v>211</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -7428,7 +7439,7 @@
         <v>212</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -7452,7 +7463,7 @@
         <v>139</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -7604,7 +7615,7 @@
         <v>204</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -7628,7 +7639,7 @@
         <v>219</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -7653,7 +7664,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>257</v>
@@ -7662,7 +7673,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>259</v>
@@ -7671,115 +7682,115 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>231</v>
@@ -7788,7 +7799,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>138</v>
@@ -7797,7 +7808,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>232</v>
@@ -7806,7 +7817,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>233</v>
@@ -7815,25 +7826,25 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>502</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>231</v>
@@ -8228,7 +8239,7 @@
         <v>302</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -8236,7 +8247,7 @@
         <v>230</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -8244,7 +8255,7 @@
         <v>205</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -8252,7 +8263,7 @@
         <v>206</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -8260,7 +8271,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -8268,7 +8279,7 @@
         <v>207</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -8276,7 +8287,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -8284,7 +8295,7 @@
         <v>141</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -8292,7 +8303,7 @@
         <v>208</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -8300,7 +8311,7 @@
         <v>209</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -8308,7 +8319,7 @@
         <v>210</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -8316,7 +8327,7 @@
         <v>211</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -8324,7 +8335,7 @@
         <v>212</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -8332,7 +8343,7 @@
         <v>142</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -8340,7 +8351,7 @@
         <v>138</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -8348,7 +8359,7 @@
         <v>139</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -8356,7 +8367,7 @@
         <v>231</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -8364,7 +8375,7 @@
         <v>213</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -8372,7 +8383,7 @@
         <v>216</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -8380,7 +8391,7 @@
         <v>217</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -8388,7 +8399,7 @@
         <v>218</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -8396,7 +8407,7 @@
         <v>219</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -8404,7 +8415,7 @@
         <v>220</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -8412,7 +8423,7 @@
         <v>221</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -8420,7 +8431,7 @@
         <v>222</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -8428,7 +8439,7 @@
         <v>223</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -8436,7 +8447,7 @@
         <v>224</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -8444,7 +8455,7 @@
         <v>225</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -8452,7 +8463,7 @@
         <v>226</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -8460,7 +8471,7 @@
         <v>227</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -8468,7 +8479,7 @@
         <v>228</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -8476,7 +8487,7 @@
         <v>229</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -8484,7 +8495,7 @@
         <v>232</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -8492,7 +8503,7 @@
         <v>214</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -8500,7 +8511,7 @@
         <v>204</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -8508,7 +8519,7 @@
         <v>233</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -8516,7 +8527,7 @@
         <v>215</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -8524,7 +8535,7 @@
         <v>219</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -8548,18 +8559,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -8567,7 +8578,7 @@
         <v>306</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -8575,7 +8586,7 @@
         <v>307</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -8583,7 +8594,7 @@
         <v>308</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -8591,7 +8602,7 @@
         <v>309</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -8599,7 +8610,7 @@
         <v>310</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -8607,7 +8618,7 @@
         <v>311</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -8615,7 +8626,7 @@
         <v>312</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -8623,7 +8634,7 @@
         <v>313</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -8631,7 +8642,7 @@
         <v>314</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -8639,175 +8650,175 @@
         <v>315</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -8842,7 +8853,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>241</v>
@@ -8853,35 +8864,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>242</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -8911,7 +8922,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>257</v>
@@ -8919,7 +8930,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>259</v>
@@ -8930,7 +8941,7 @@
         <v>306</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -8938,7 +8949,7 @@
         <v>307</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -8946,7 +8957,7 @@
         <v>308</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -8954,7 +8965,7 @@
         <v>309</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -8962,7 +8973,7 @@
         <v>310</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -8970,7 +8981,7 @@
         <v>311</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -8978,7 +8989,7 @@
         <v>312</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -8986,7 +8997,7 @@
         <v>313</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -8994,7 +9005,7 @@
         <v>314</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -9002,175 +9013,175 @@
         <v>315</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -9203,18 +9214,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -9222,7 +9233,7 @@
         <v>306</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -9230,7 +9241,7 @@
         <v>306</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -9238,7 +9249,7 @@
         <v>307</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -9246,7 +9257,7 @@
         <v>307</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -9254,7 +9265,7 @@
         <v>308</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -9262,15 +9273,15 @@
         <v>308</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -9278,7 +9289,7 @@
         <v>310</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -9286,7 +9297,7 @@
         <v>311</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -9294,7 +9305,7 @@
         <v>312</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -9302,7 +9313,7 @@
         <v>313</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -9310,7 +9321,7 @@
         <v>314</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -9318,39 +9329,39 @@
         <v>315</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -9358,11 +9369,11 @@
   <conditionalFormatting sqref="A2">
     <cfRule type="duplicateValues" dxfId="27" priority="5"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A16:A19">
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:A19">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9384,15 +9395,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>145</v>
@@ -9403,7 +9414,7 @@
         <v>306</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -9411,7 +9422,7 @@
         <v>307</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -9419,7 +9430,7 @@
         <v>307</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -9427,7 +9438,7 @@
         <v>308</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -9435,7 +9446,7 @@
         <v>308</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -9443,7 +9454,7 @@
         <v>310</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -9451,7 +9462,7 @@
         <v>310</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -9459,7 +9470,7 @@
         <v>311</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -9467,7 +9478,7 @@
         <v>312</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -9475,7 +9486,7 @@
         <v>313</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -9483,7 +9494,7 @@
         <v>314</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -9491,39 +9502,39 @@
         <v>315</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -9551,18 +9562,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -9570,7 +9581,7 @@
         <v>306</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -9578,7 +9589,7 @@
         <v>307</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -9586,7 +9597,7 @@
         <v>308</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -9594,7 +9605,7 @@
         <v>309</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -9602,7 +9613,7 @@
         <v>310</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -9610,7 +9621,7 @@
         <v>311</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -9618,7 +9629,7 @@
         <v>312</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -9626,7 +9637,7 @@
         <v>313</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -9634,7 +9645,7 @@
         <v>314</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -9642,39 +9653,39 @@
         <v>315</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -9703,18 +9714,18 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -9799,7 +9810,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="B13" s="6">
         <v>0</v>
@@ -9808,7 +9819,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="B14" s="6">
         <v>0</v>
@@ -9817,7 +9828,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="B15" s="6">
         <v>0</v>
@@ -9826,7 +9837,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
@@ -9894,7 +9905,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>249</v>
@@ -9902,7 +9913,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>246</v>
@@ -10007,7 +10018,7 @@
         <v>307</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="E13" s="32"/>
       <c r="K13" s="32"/>
@@ -10041,7 +10052,7 @@
         <v>308</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -10284,7 +10295,7 @@
         <v>315</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -10307,18 +10318,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -10403,7 +10414,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>245</v>
@@ -10411,7 +10422,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>245</v>
@@ -10419,7 +10430,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>245</v>
@@ -10427,7 +10438,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>245</v>
@@ -10435,7 +10446,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>245</v>
@@ -10443,7 +10454,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>245</v>
@@ -10451,7 +10462,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>245</v>
@@ -10459,7 +10470,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>245</v>
@@ -10467,7 +10478,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>245</v>
@@ -10475,7 +10486,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>245</v>
@@ -10483,7 +10494,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>245</v>
@@ -10491,7 +10502,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>245</v>
@@ -10499,7 +10510,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>245</v>
@@ -10507,7 +10518,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>245</v>
@@ -10515,7 +10526,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>245</v>
@@ -10523,7 +10534,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>245</v>
@@ -10531,7 +10542,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>245</v>
@@ -10564,18 +10575,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -10583,7 +10594,7 @@
         <v>306</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -10591,7 +10602,7 @@
         <v>307</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -10599,7 +10610,7 @@
         <v>308</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -10607,7 +10618,7 @@
         <v>309</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -10615,7 +10626,7 @@
         <v>310</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -10623,7 +10634,7 @@
         <v>311</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -10631,7 +10642,7 @@
         <v>312</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -10639,7 +10650,7 @@
         <v>313</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -10647,7 +10658,7 @@
         <v>314</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -10655,143 +10666,143 @@
         <v>315</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -10823,18 +10834,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -11018,18 +11029,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>230</v>
@@ -11109,7 +11120,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>276</v>
@@ -11120,35 +11131,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>145</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -11163,7 +11174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E20C1A-8A21-41E0-9FF7-195B3A3BE931}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -11176,7 +11187,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>195</v>
@@ -11187,13 +11198,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -11288,7 +11299,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B13" s="24">
         <v>45</v>
@@ -11297,7 +11308,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="B14" s="24">
         <v>50</v>
@@ -11306,7 +11317,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="B15" s="24">
         <v>72</v>
@@ -11315,7 +11326,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B16" s="24">
         <v>55</v>
@@ -11324,7 +11335,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B17" s="24">
         <v>63</v>
@@ -11333,7 +11344,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="B18" s="24">
         <v>65</v>
@@ -11342,7 +11353,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B19" s="24">
         <v>65</v>
@@ -11351,7 +11362,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B20" s="24">
         <v>50</v>
@@ -11360,7 +11371,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="24">
@@ -11369,7 +11380,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="24">
@@ -11378,7 +11389,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B23" s="24">
         <v>145</v>
@@ -11387,7 +11398,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="B24" s="24">
         <v>145</v>
@@ -11396,7 +11407,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="B25" s="24">
         <v>250</v>
@@ -11405,7 +11416,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="B26" s="24">
         <v>70</v>
@@ -11414,7 +11425,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B27" s="24">
         <v>120</v>
@@ -11423,7 +11434,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="B28" s="24">
         <v>92</v>
@@ -11432,7 +11443,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B29" s="24">
         <v>180</v>
@@ -11466,18 +11477,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -11485,7 +11496,7 @@
         <v>316</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -11493,7 +11504,7 @@
         <v>317</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -11501,7 +11512,7 @@
         <v>318</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -11509,7 +11520,7 @@
         <v>319</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -11517,7 +11528,7 @@
         <v>320</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -11525,7 +11536,7 @@
         <v>321</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -11533,7 +11544,7 @@
         <v>322</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -11541,7 +11552,7 @@
         <v>323</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -11549,7 +11560,7 @@
         <v>324</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -11557,7 +11568,7 @@
         <v>325</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -11565,7 +11576,7 @@
         <v>326</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -11573,7 +11584,7 @@
         <v>327</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -11581,7 +11592,7 @@
         <v>328</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -11589,7 +11600,7 @@
         <v>329</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -11597,7 +11608,7 @@
         <v>330</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -11605,7 +11616,7 @@
         <v>331</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -11613,7 +11624,7 @@
         <v>332</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -11621,7 +11632,7 @@
         <v>333</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -11629,7 +11640,7 @@
         <v>334</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -11637,7 +11648,7 @@
         <v>335</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -11645,7 +11656,7 @@
         <v>336</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -11653,7 +11664,7 @@
         <v>337</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -11661,7 +11672,7 @@
         <v>338</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -11669,7 +11680,7 @@
         <v>339</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -11677,7 +11688,7 @@
         <v>340</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -11685,7 +11696,7 @@
         <v>341</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -11693,7 +11704,7 @@
         <v>342</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -11701,7 +11712,7 @@
         <v>343</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -11709,7 +11720,7 @@
         <v>344</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -11717,111 +11728,111 @@
         <v>345</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -11848,7 +11859,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>257</v>
@@ -11856,7 +11867,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>259</v>
@@ -11867,7 +11878,7 @@
         <v>316</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -11875,7 +11886,7 @@
         <v>317</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -11883,7 +11894,7 @@
         <v>318</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -11891,7 +11902,7 @@
         <v>319</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -11899,7 +11910,7 @@
         <v>320</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -11907,7 +11918,7 @@
         <v>321</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -11915,7 +11926,7 @@
         <v>322</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -11923,7 +11934,7 @@
         <v>323</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -11931,7 +11942,7 @@
         <v>324</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -11939,7 +11950,7 @@
         <v>325</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -11947,7 +11958,7 @@
         <v>326</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -11955,7 +11966,7 @@
         <v>327</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -11963,7 +11974,7 @@
         <v>328</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -11971,7 +11982,7 @@
         <v>329</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -11979,7 +11990,7 @@
         <v>330</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -11987,7 +11998,7 @@
         <v>331</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -11995,7 +12006,7 @@
         <v>332</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -12003,7 +12014,7 @@
         <v>333</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -12011,7 +12022,7 @@
         <v>334</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -12019,7 +12030,7 @@
         <v>335</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -12027,7 +12038,7 @@
         <v>336</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -12035,7 +12046,7 @@
         <v>337</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -12043,7 +12054,7 @@
         <v>338</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -12051,7 +12062,7 @@
         <v>339</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -12059,7 +12070,7 @@
         <v>340</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -12067,7 +12078,7 @@
         <v>341</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -12075,7 +12086,7 @@
         <v>342</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -12083,7 +12094,7 @@
         <v>343</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -12091,7 +12102,7 @@
         <v>344</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -12099,111 +12110,111 @@
         <v>345</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -12230,18 +12241,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -12249,7 +12260,7 @@
         <v>316</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -12257,7 +12268,7 @@
         <v>317</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -12265,7 +12276,7 @@
         <v>318</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -12273,7 +12284,7 @@
         <v>319</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -12281,7 +12292,7 @@
         <v>320</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -12289,7 +12300,7 @@
         <v>321</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -12297,7 +12308,7 @@
         <v>322</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -12305,7 +12316,7 @@
         <v>323</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -12313,7 +12324,7 @@
         <v>324</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -12321,7 +12332,7 @@
         <v>325</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -12329,7 +12340,7 @@
         <v>326</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -12337,7 +12348,7 @@
         <v>327</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -12345,7 +12356,7 @@
         <v>328</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -12353,7 +12364,7 @@
         <v>329</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -12361,7 +12372,7 @@
         <v>330</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -12369,7 +12380,7 @@
         <v>331</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -12377,7 +12388,7 @@
         <v>332</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -12385,7 +12396,7 @@
         <v>333</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -12393,7 +12404,7 @@
         <v>334</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -12401,7 +12412,7 @@
         <v>335</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -12409,7 +12420,7 @@
         <v>336</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -12417,7 +12428,7 @@
         <v>337</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -12425,7 +12436,7 @@
         <v>338</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -12433,7 +12444,7 @@
         <v>339</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -12441,7 +12452,7 @@
         <v>340</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -12449,7 +12460,7 @@
         <v>341</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -12457,7 +12468,7 @@
         <v>342</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -12465,7 +12476,7 @@
         <v>343</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -12473,7 +12484,7 @@
         <v>344</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -12481,111 +12492,111 @@
         <v>345</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -12612,15 +12623,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>252</v>
@@ -12868,7 +12879,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B33" s="6">
         <v>3840</v>
@@ -12876,7 +12887,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B34" s="22">
         <v>6000</v>
@@ -12884,7 +12895,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B35" s="6">
         <v>1920</v>
@@ -12892,7 +12903,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B36" s="6">
         <v>3840</v>
@@ -12900,7 +12911,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="B37" s="6">
         <v>3840</v>
@@ -12908,7 +12919,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B38" s="6">
         <v>3840</v>
@@ -12916,7 +12927,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B39" s="6">
         <v>3840</v>
@@ -12924,7 +12935,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B40" s="22">
         <v>3840</v>
@@ -12932,7 +12943,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B41" s="22">
         <v>3840</v>
@@ -12940,7 +12951,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B42" s="22">
         <v>3840</v>
@@ -12948,7 +12959,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="B43" s="6">
         <v>3840</v>
@@ -12956,7 +12967,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B44" s="6">
         <v>3840</v>
@@ -12964,7 +12975,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B45" s="6">
         <v>3840</v>
@@ -12994,15 +13005,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>183</v>
@@ -13250,7 +13261,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B33" s="6">
         <v>4500</v>
@@ -13258,7 +13269,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B34" s="6">
         <v>7000</v>
@@ -13266,7 +13277,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B35" s="6">
         <v>4500</v>
@@ -13274,7 +13285,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B36" s="6">
         <v>4500</v>
@@ -13282,7 +13293,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="B37" s="6">
         <v>5000</v>
@@ -13290,7 +13301,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B38" s="6">
         <v>800</v>
@@ -13298,7 +13309,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B39" s="6">
         <v>800</v>
@@ -13306,7 +13317,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B40" s="6">
         <v>800</v>
@@ -13314,7 +13325,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B41" s="6">
         <v>800</v>
@@ -13322,7 +13333,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B42" s="6">
         <v>800</v>
@@ -13330,7 +13341,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="B43" s="6">
         <v>800</v>
@@ -13338,7 +13349,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B44" s="6">
         <v>800</v>
@@ -13346,7 +13357,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B45" s="22">
         <v>800</v>
@@ -13376,18 +13387,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -13632,7 +13643,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B33" s="26">
         <v>250250</v>
@@ -13640,7 +13651,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B34" s="26">
         <v>320160</v>
@@ -13648,7 +13659,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B35" s="26">
         <v>250250</v>
@@ -13656,7 +13667,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B36" s="26">
         <v>250250</v>
@@ -13664,7 +13675,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="B37" s="26">
         <v>250250</v>
@@ -13672,7 +13683,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B38" s="26">
         <v>250250</v>
@@ -13680,7 +13691,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B39" s="26">
         <v>250250</v>
@@ -13688,7 +13699,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B40" s="26">
         <v>320160</v>
@@ -13696,7 +13707,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B41" s="26">
         <v>320160</v>
@@ -13704,7 +13715,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B42" s="26">
         <v>320160</v>
@@ -13712,7 +13723,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="B43" s="26">
         <v>240120</v>
@@ -13720,7 +13731,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B44" s="26">
         <v>240120</v>
@@ -13728,7 +13739,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B45" s="26">
         <v>320160</v>
@@ -13747,7 +13758,7 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B45"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13758,7 +13769,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>249</v>
@@ -13766,7 +13777,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>246</v>
@@ -14014,7 +14025,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>182</v>
@@ -14022,7 +14033,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>184</v>
@@ -14030,7 +14041,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>143</v>
@@ -14038,7 +14049,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>143</v>
@@ -14046,7 +14057,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>185</v>
@@ -14054,7 +14065,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>182</v>
@@ -14062,7 +14073,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>143</v>
@@ -14070,7 +14081,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>186</v>
@@ -14078,7 +14089,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>8</v>
@@ -14086,7 +14097,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>7</v>
@@ -14094,7 +14105,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>6</v>
@@ -14102,7 +14113,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>5</v>
@@ -14110,7 +14121,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>190</v>
@@ -14143,18 +14154,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -14399,7 +14410,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>245</v>
@@ -14407,7 +14418,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>245</v>
@@ -14415,7 +14426,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>245</v>
@@ -14423,7 +14434,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>245</v>
@@ -14431,7 +14442,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>245</v>
@@ -14439,7 +14450,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>245</v>
@@ -14447,7 +14458,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>245</v>
@@ -14455,7 +14466,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>245</v>
@@ -14463,7 +14474,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>245</v>
@@ -14471,7 +14482,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>245</v>
@@ -14479,7 +14490,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>245</v>
@@ -14487,7 +14498,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>245</v>
@@ -14495,10 +14506,10 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -14526,18 +14537,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>230</v>
@@ -14615,10 +14626,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="B1" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>303</v>
@@ -14626,24 +14637,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B3" t="s">
         <v>202</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -14670,18 +14681,18 @@
   <sheetData>
     <row r="1" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T1" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="U1" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T2" s="15" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="U2" s="25" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="20:21" x14ac:dyDescent="0.2">
@@ -14689,7 +14700,7 @@
         <v>343</v>
       </c>
       <c r="U3" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="20:21" x14ac:dyDescent="0.2">
@@ -14697,7 +14708,7 @@
         <v>344</v>
       </c>
       <c r="U4" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="20:21" x14ac:dyDescent="0.2">
@@ -14705,55 +14716,55 @@
         <v>345</v>
       </c>
       <c r="U5" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T6" s="6" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="U6" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T7" s="6" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="U7" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T8" s="6" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="U8" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T9" s="6" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="U9" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T10" s="6" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="U10" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="20:21" x14ac:dyDescent="0.2">
       <c r="T11" s="6" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="U11" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -14779,7 +14790,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>195</v>
@@ -14790,13 +14801,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>187</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -15131,7 +15142,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B33" s="10">
         <v>27</v>
@@ -15142,7 +15153,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B34" s="10">
         <v>18</v>
@@ -15153,7 +15164,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B35" s="10">
         <v>17</v>
@@ -15164,7 +15175,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B36" s="10">
         <v>17</v>
@@ -15175,7 +15186,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="B37" s="10">
         <v>22</v>
@@ -15186,7 +15197,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B38" s="10">
         <v>27</v>
@@ -15197,7 +15208,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B39" s="10">
         <v>17</v>
@@ -15208,7 +15219,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B40" s="10">
         <v>39.5</v>
@@ -15219,7 +15230,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B41" s="10">
         <v>25.8</v>
@@ -15230,7 +15241,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B42" s="10">
         <v>22.5</v>
@@ -15241,7 +15252,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="B43" s="10">
         <v>16.5</v>
@@ -15252,7 +15263,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B44" s="10">
         <v>12.4</v>
@@ -15263,7 +15274,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B45" s="10">
         <v>81</v>
@@ -15296,10 +15307,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="B1" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>303</v>
@@ -15307,57 +15318,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="B3" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="B4" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="B5" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="B6" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -15385,10 +15396,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>303</v>
@@ -15396,46 +15407,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -15479,29 +15490,29 @@
         <v>151</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="B3" s="21">
         <v>0.8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="B4" s="21">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -15512,7 +15523,7 @@
         <v>1.25</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -15523,7 +15534,7 @@
         <v>1.37</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -15534,7 +15545,7 @@
         <v>1.53</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -15545,7 +15556,7 @@
         <v>1.66</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -15556,18 +15567,18 @@
         <v>1.86</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="B10" s="21">
         <v>1.87</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -15578,7 +15589,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -15589,18 +15600,18 @@
         <v>2.5</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="B13" s="21">
         <v>2.6</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -15611,7 +15622,7 @@
         <v>2.97</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -15622,7 +15633,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -15633,18 +15644,18 @@
         <v>3.07</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="B17" s="21">
         <v>3.9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -15655,7 +15666,7 @@
         <v>3.91</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -15666,18 +15677,18 @@
         <v>4</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="B20" s="21">
         <v>4.46</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -15688,7 +15699,7 @@
         <v>4.8099999999999996</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -15699,18 +15710,18 @@
         <v>5</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="B23" s="21">
         <v>5.21</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -15721,18 +15732,18 @@
         <v>6</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="B25" s="21">
         <v>6.25</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -15743,29 +15754,29 @@
         <v>6.66</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="B27" s="21">
         <v>6.67</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="B28" s="21">
         <v>7.81</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -15776,18 +15787,18 @@
         <v>8</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="B30" s="21">
         <v>8.91</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -15798,29 +15809,29 @@
         <v>10</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="B32" s="21">
         <v>13.33</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="B33" s="21">
         <v>16</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -15847,7 +15858,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="B1" t="s">
         <v>251</v>
@@ -15858,13 +15869,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>252</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -15875,7 +15886,7 @@
         <v>1920</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -15886,7 +15897,7 @@
         <v>2880</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -15897,7 +15908,7 @@
         <v>3840</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -15908,7 +15919,7 @@
         <v>6000</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -15919,7 +15930,7 @@
         <v>7680</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/database.xlsx
+++ b/backend/data/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ledts\calculator\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B880FABC-D22A-4FF1-AFEF-930C5F4939F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FA30BF-BF45-4057-8496-376939DF2443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="1000" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="1000" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screen_type" sheetId="22" r:id="rId1"/>
@@ -4176,7 +4176,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD45"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12612,7 +12612,7 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection sqref="A1:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15847,7 +15847,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C7"/>
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/backend/data/database.xlsx
+++ b/backend/data/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ledts\calculator\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FA30BF-BF45-4057-8496-376939DF2443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C6E089-6103-4C2C-B1EF-541FAF2A2B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="1000" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="1000" firstSheet="41" activeTab="50" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screen_type" sheetId="22" r:id="rId1"/>
@@ -4175,7 +4175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1557351-AC75-4275-84AC-10988B807ED9}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -14779,7 +14779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E32B68E-D42B-4786-BFE5-4B2187F4D12D}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
@@ -15462,7 +15462,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C33"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15501,7 +15501,7 @@
         <v>0.8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -15512,7 +15512,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -15534,7 +15534,7 @@
         <v>1.37</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -15578,7 +15578,7 @@
         <v>1.87</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -15622,7 +15622,7 @@
         <v>2.97</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -15666,7 +15666,7 @@
         <v>3.91</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -15688,7 +15688,7 @@
         <v>4.46</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -15699,7 +15699,7 @@
         <v>4.8099999999999996</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -15721,7 +15721,7 @@
         <v>5.21</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -15743,7 +15743,7 @@
         <v>6.25</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -15765,7 +15765,7 @@
         <v>6.67</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -15798,7 +15798,7 @@
         <v>8.91</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -15809,7 +15809,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -15820,7 +15820,7 @@
         <v>13.33</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -15831,7 +15831,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/database.xlsx
+++ b/backend/data/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ledts\calculator\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C6E089-6103-4C2C-B1EF-541FAF2A2B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B598949-C378-4ED6-9575-DE225D6922F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="1000" firstSheet="41" activeTab="50" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25590" yWindow="0" windowWidth="26010" windowHeight="20880" tabRatio="1000" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screen_type" sheetId="22" r:id="rId1"/>
@@ -4827,8 +4827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A087147-0889-47E2-B7E5-6733E2DA4BB8}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5328,7 +5328,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5568,10 +5568,10 @@
         <v>576576</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R7" s="6">
-        <v>640</v>
+        <v>576</v>
       </c>
       <c r="S7" s="6">
         <v>576</v>
@@ -10821,7 +10821,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14779,7 +14779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E32B68E-D42B-4786-BFE5-4B2187F4D12D}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>

--- a/backend/data/database.xlsx
+++ b/backend/data/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ledts\calculator\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B598949-C378-4ED6-9575-DE225D6922F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C85EA1-DC12-4D03-990D-DF64C1E9B003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25590" yWindow="0" windowWidth="26010" windowHeight="20880" tabRatio="1000" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25590" yWindow="0" windowWidth="26010" windowHeight="20880" tabRatio="1000" firstSheet="31" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screen_type" sheetId="22" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="574">
   <si>
     <t>уличный</t>
   </si>
@@ -1685,15 +1685,6 @@
     <t>512x1000</t>
   </si>
   <si>
-    <t>576x512</t>
-  </si>
-  <si>
-    <t>320x480</t>
-  </si>
-  <si>
-    <t>960x160</t>
-  </si>
-  <si>
     <t>module_name</t>
   </si>
   <si>
@@ -1827,6 +1818,9 @@
   </si>
   <si>
     <t>QIANGLI, Q2,5 (320*160) 6000hz,indoor,гибкий</t>
+  </si>
+  <si>
+    <t>6400x480</t>
   </si>
 </sst>
 </file>
@@ -4193,7 +4187,7 @@
         <v>402</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>238</v>
@@ -4207,7 +4201,7 @@
         <v>403</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>147</v>
@@ -4221,7 +4215,7 @@
         <v>316</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>152</v>
@@ -4235,7 +4229,7 @@
         <v>317</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>153</v>
@@ -4249,7 +4243,7 @@
         <v>318</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>154</v>
@@ -4263,7 +4257,7 @@
         <v>319</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>155</v>
@@ -4277,7 +4271,7 @@
         <v>320</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>156</v>
@@ -4291,7 +4285,7 @@
         <v>321</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>157</v>
@@ -4305,7 +4299,7 @@
         <v>322</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>158</v>
@@ -4319,7 +4313,7 @@
         <v>323</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>159</v>
@@ -4333,7 +4327,7 @@
         <v>324</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>160</v>
@@ -4347,7 +4341,7 @@
         <v>325</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>161</v>
@@ -4361,7 +4355,7 @@
         <v>326</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>162</v>
@@ -4375,7 +4369,7 @@
         <v>327</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>163</v>
@@ -4389,7 +4383,7 @@
         <v>328</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>164</v>
@@ -4403,7 +4397,7 @@
         <v>329</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>165</v>
@@ -4417,7 +4411,7 @@
         <v>330</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>166</v>
@@ -4431,7 +4425,7 @@
         <v>331</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>167</v>
@@ -4445,7 +4439,7 @@
         <v>332</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>168</v>
@@ -4459,7 +4453,7 @@
         <v>333</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>169</v>
@@ -4473,7 +4467,7 @@
         <v>334</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>170</v>
@@ -4487,7 +4481,7 @@
         <v>335</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>171</v>
@@ -4501,7 +4495,7 @@
         <v>336</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>172</v>
@@ -4515,7 +4509,7 @@
         <v>337</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>173</v>
@@ -4529,7 +4523,7 @@
         <v>338</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>174</v>
@@ -4543,7 +4537,7 @@
         <v>339</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>175</v>
@@ -4557,7 +4551,7 @@
         <v>340</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>176</v>
@@ -4571,7 +4565,7 @@
         <v>341</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>177</v>
@@ -4585,7 +4579,7 @@
         <v>342</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>178</v>
@@ -4599,7 +4593,7 @@
         <v>343</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>179</v>
@@ -4613,7 +4607,7 @@
         <v>344</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>180</v>
@@ -4627,7 +4621,7 @@
         <v>345</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>181</v>
@@ -4769,7 +4763,7 @@
         <v>256128</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C7" s="3">
         <v>256</v>
@@ -4786,7 +4780,7 @@
         <v>320192</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C8" s="6">
         <v>320</v>
@@ -4803,7 +4797,7 @@
         <v>160160</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C9" s="6">
         <v>160</v>
@@ -4827,8 +4821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A087147-0889-47E2-B7E5-6733E2DA4BB8}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5247,13 +5241,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>398</v>
@@ -5261,13 +5255,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>398</v>
@@ -5275,13 +5269,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>398</v>
@@ -5289,13 +5283,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>398</v>
@@ -5328,7 +5322,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5535,10 +5529,10 @@
         <v>512512</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>528</v>
+        <v>353</v>
       </c>
       <c r="R6" s="6">
-        <v>576</v>
+        <v>512</v>
       </c>
       <c r="S6" s="6">
         <v>512</v>
@@ -5634,10 +5628,10 @@
         <v>640480</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>529</v>
+        <v>573</v>
       </c>
       <c r="R9" s="6">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="S9" s="6">
         <v>480</v>
@@ -5667,10 +5661,10 @@
         <v>320160</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>530</v>
+        <v>357</v>
       </c>
       <c r="R10" s="6">
-        <v>960</v>
+        <v>320</v>
       </c>
       <c r="S10" s="6">
         <v>160</v>
@@ -8791,7 +8785,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>475</v>
@@ -8799,7 +8793,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>475</v>
@@ -8807,7 +8801,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>475</v>
@@ -8815,7 +8809,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>475</v>
@@ -9154,7 +9148,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>477</v>
@@ -9162,7 +9156,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>477</v>
@@ -9170,7 +9164,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>477</v>
@@ -9178,7 +9172,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>477</v>
@@ -9278,7 +9272,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>452</v>
@@ -9334,7 +9328,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>453</v>
@@ -9342,7 +9336,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>453</v>
@@ -9350,7 +9344,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>452</v>
@@ -9358,7 +9352,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>452</v>
@@ -9507,7 +9501,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>442</v>
@@ -9515,7 +9509,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>441</v>
@@ -9523,7 +9517,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>442</v>
@@ -9531,7 +9525,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>441</v>
@@ -9658,7 +9652,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>449</v>
@@ -9666,7 +9660,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>449</v>
@@ -9674,7 +9668,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>449</v>
@@ -9682,7 +9676,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>449</v>
@@ -9810,7 +9804,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B13" s="6">
         <v>0</v>
@@ -9819,7 +9813,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B14" s="6">
         <v>0</v>
@@ -9828,7 +9822,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B15" s="6">
         <v>0</v>
@@ -9837,7 +9831,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
@@ -9887,8 +9881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330D0EDA-4CC0-4D25-885C-C1C08E778A60}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41:L45"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10295,7 +10289,7 @@
         <v>315</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -10821,7 +10815,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13758,7 +13752,7 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A19" sqref="A19:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/backend/data/database.xlsx
+++ b/backend/data/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ledts\calculator\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C85EA1-DC12-4D03-990D-DF64C1E9B003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2812D4-821B-4DAA-9ABE-0FCF54721926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25590" yWindow="0" windowWidth="26010" windowHeight="20880" tabRatio="1000" firstSheet="31" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25590" yWindow="0" windowWidth="26010" windowHeight="20880" tabRatio="1000" firstSheet="39" activeTab="48" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screen_type" sheetId="22" r:id="rId1"/>
@@ -9881,7 +9881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330D0EDA-4CC0-4D25-885C-C1C08E778A60}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -14518,8 +14518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF89E3F5-DCE7-44A2-8672-367DB4BDA25F}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14542,7 +14542,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>230</v>

--- a/backend/data/database.xlsx
+++ b/backend/data/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ledts\calculator\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404D5D54-8CF6-4649-A6CE-D517C37E8F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2A1DDF-8C3A-44B3-A7C8-40F92424C477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="1000" firstSheet="30" activeTab="50" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="1000" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screen_type" sheetId="22" r:id="rId1"/>
@@ -27,46 +27,47 @@
     <sheet name="supplier" sheetId="44" r:id="rId12"/>
     <sheet name="ip_protection" sheetId="4" r:id="rId13"/>
     <sheet name="module" sheetId="7" r:id="rId14"/>
-    <sheet name="module_size" sheetId="68" r:id="rId15"/>
-    <sheet name="cabinet" sheetId="43" r:id="rId16"/>
-    <sheet name="cabinet_size" sheetId="66" r:id="rId17"/>
-    <sheet name="item" sheetId="6" r:id="rId18"/>
-    <sheet name="item_category" sheetId="41" r:id="rId19"/>
-    <sheet name="item_subcategory" sheetId="42" r:id="rId20"/>
-    <sheet name="screen_type&gt;option" sheetId="64" r:id="rId21"/>
-    <sheet name="screen_type&gt;control_type" sheetId="89" r:id="rId22"/>
-    <sheet name="screen_type&gt;sensor" sheetId="88" r:id="rId23"/>
-    <sheet name="item&gt;category" sheetId="82" r:id="rId24"/>
-    <sheet name="item&gt;subcategory" sheetId="83" r:id="rId25"/>
-    <sheet name="item_category&gt;item_subcategory" sheetId="53" r:id="rId26"/>
-    <sheet name="item&gt;price" sheetId="85" r:id="rId27"/>
-    <sheet name="item&gt;supplier" sheetId="84" r:id="rId28"/>
-    <sheet name="cabinet&gt;category" sheetId="63" r:id="rId29"/>
-    <sheet name="cabinet&gt;subcategory" sheetId="65" r:id="rId30"/>
-    <sheet name="cabinet&gt;location" sheetId="58" r:id="rId31"/>
-    <sheet name="cabinet&gt;placement" sheetId="55" r:id="rId32"/>
-    <sheet name="cabinet&gt;material" sheetId="57" r:id="rId33"/>
-    <sheet name="cabinet&gt;cabinet_size" sheetId="67" r:id="rId34"/>
-    <sheet name="cabinet&gt;pitch" sheetId="54" r:id="rId35"/>
-    <sheet name="cabinet&gt;manufacturer" sheetId="60" r:id="rId36"/>
-    <sheet name="cabinet&gt;supplier" sheetId="59" r:id="rId37"/>
-    <sheet name="cabinet_size&gt;module_size" sheetId="69" r:id="rId38"/>
-    <sheet name="cabinet&gt;items_count" sheetId="17" r:id="rId39"/>
-    <sheet name="cabinet&gt;price" sheetId="75" r:id="rId40"/>
-    <sheet name="module&gt;category" sheetId="70" r:id="rId41"/>
-    <sheet name="module&gt;subcategory" sheetId="71" r:id="rId42"/>
-    <sheet name="module&gt;location" sheetId="72" r:id="rId43"/>
-    <sheet name="module&gt;refresh_rate" sheetId="80" r:id="rId44"/>
-    <sheet name="module&gt;brightness" sheetId="81" r:id="rId45"/>
-    <sheet name="module&gt;module_size" sheetId="76" r:id="rId46"/>
-    <sheet name="module&gt;pitch" sheetId="74" r:id="rId47"/>
-    <sheet name="module&gt;manufacturer" sheetId="73" r:id="rId48"/>
-    <sheet name="module&gt;items_count" sheetId="52" r:id="rId49"/>
-    <sheet name="module&gt;option" sheetId="61" r:id="rId50"/>
-    <sheet name="module&gt;price" sheetId="77" r:id="rId51"/>
+    <sheet name="video_processor" sheetId="90" r:id="rId15"/>
+    <sheet name="module_size" sheetId="68" r:id="rId16"/>
+    <sheet name="cabinet" sheetId="43" r:id="rId17"/>
+    <sheet name="cabinet_size" sheetId="66" r:id="rId18"/>
+    <sheet name="item" sheetId="6" r:id="rId19"/>
+    <sheet name="item_category" sheetId="41" r:id="rId20"/>
+    <sheet name="item_subcategory" sheetId="42" r:id="rId21"/>
+    <sheet name="screen_type&gt;option" sheetId="64" r:id="rId22"/>
+    <sheet name="screen_type&gt;control_type" sheetId="89" r:id="rId23"/>
+    <sheet name="screen_type&gt;sensor" sheetId="88" r:id="rId24"/>
+    <sheet name="item&gt;category" sheetId="82" r:id="rId25"/>
+    <sheet name="item&gt;subcategory" sheetId="83" r:id="rId26"/>
+    <sheet name="item_category&gt;item_subcategory" sheetId="53" r:id="rId27"/>
+    <sheet name="item&gt;price" sheetId="85" r:id="rId28"/>
+    <sheet name="item&gt;supplier" sheetId="84" r:id="rId29"/>
+    <sheet name="cabinet&gt;category" sheetId="63" r:id="rId30"/>
+    <sheet name="cabinet&gt;subcategory" sheetId="65" r:id="rId31"/>
+    <sheet name="cabinet&gt;location" sheetId="58" r:id="rId32"/>
+    <sheet name="cabinet&gt;placement" sheetId="55" r:id="rId33"/>
+    <sheet name="cabinet&gt;material" sheetId="57" r:id="rId34"/>
+    <sheet name="cabinet&gt;cabinet_size" sheetId="67" r:id="rId35"/>
+    <sheet name="cabinet&gt;pitch" sheetId="54" r:id="rId36"/>
+    <sheet name="cabinet&gt;manufacturer" sheetId="60" r:id="rId37"/>
+    <sheet name="cabinet&gt;supplier" sheetId="59" r:id="rId38"/>
+    <sheet name="cabinet_size&gt;module_size" sheetId="69" r:id="rId39"/>
+    <sheet name="cabinet&gt;items_count" sheetId="17" r:id="rId40"/>
+    <sheet name="cabinet&gt;price" sheetId="75" r:id="rId41"/>
+    <sheet name="module&gt;category" sheetId="70" r:id="rId42"/>
+    <sheet name="module&gt;subcategory" sheetId="71" r:id="rId43"/>
+    <sheet name="module&gt;location" sheetId="72" r:id="rId44"/>
+    <sheet name="module&gt;refresh_rate" sheetId="80" r:id="rId45"/>
+    <sheet name="module&gt;brightness" sheetId="81" r:id="rId46"/>
+    <sheet name="module&gt;module_size" sheetId="76" r:id="rId47"/>
+    <sheet name="module&gt;pitch" sheetId="74" r:id="rId48"/>
+    <sheet name="module&gt;manufacturer" sheetId="73" r:id="rId49"/>
+    <sheet name="module&gt;items_count" sheetId="52" r:id="rId50"/>
+    <sheet name="module&gt;option" sheetId="61" r:id="rId51"/>
+    <sheet name="module&gt;price" sheetId="77" r:id="rId52"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">cabinet!$A$2:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">cabinet!$A$2:$C$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">module!$A$2:$D$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="610">
   <si>
     <t>уличный</t>
   </si>
@@ -1734,6 +1735,189 @@
   </si>
   <si>
     <t>QIANGLI, Q2,5 (320*160) 6000hz,indoor,гибкий</t>
+  </si>
+  <si>
+    <t>processor_code</t>
+  </si>
+  <si>
+    <t>Код процессора</t>
+  </si>
+  <si>
+    <t>processor_name</t>
+  </si>
+  <si>
+    <t>processor_sku</t>
+  </si>
+  <si>
+    <t>Видео процессор NovaPro UHD JR</t>
+  </si>
+  <si>
+    <t>Видео процессор NovaPro UHD</t>
+  </si>
+  <si>
+    <t>Видео процессор VS7</t>
+  </si>
+  <si>
+    <t>Видео процессор VX400S-N</t>
+  </si>
+  <si>
+    <t>Видео процессор VX400</t>
+  </si>
+  <si>
+    <t>Видео процессор VX4S-N</t>
+  </si>
+  <si>
+    <t>Видео процессор VX600</t>
+  </si>
+  <si>
+    <t>Видео процессор VX16S</t>
+  </si>
+  <si>
+    <t>Медиа процессор TU15 Pro</t>
+  </si>
+  <si>
+    <t>Медиа процессор TU20 Pro</t>
+  </si>
+  <si>
+    <t>Медиа процессор TU40 Pro</t>
+  </si>
+  <si>
+    <t>Видео процессор VC4</t>
+  </si>
+  <si>
+    <t>Видео процессор VC6</t>
+  </si>
+  <si>
+    <t>Видео процессор VC10</t>
+  </si>
+  <si>
+    <t>Видео процессор VC16</t>
+  </si>
+  <si>
+    <t>Видео процессор VC24</t>
+  </si>
+  <si>
+    <t>Видео процессор VX1000</t>
+  </si>
+  <si>
+    <t>Видео процессор CX40 Pro</t>
+  </si>
+  <si>
+    <t>Видео процессор CX80 Pro</t>
+  </si>
+  <si>
+    <t>VP-NPUHD</t>
+  </si>
+  <si>
+    <t>VP-NPUHDJr</t>
+  </si>
+  <si>
+    <t>NPUHDJr</t>
+  </si>
+  <si>
+    <t>NPUHD</t>
+  </si>
+  <si>
+    <t>VP-VS7</t>
+  </si>
+  <si>
+    <t>VS7</t>
+  </si>
+  <si>
+    <t>VP-400SN</t>
+  </si>
+  <si>
+    <t>400SN</t>
+  </si>
+  <si>
+    <t>VP-VX400</t>
+  </si>
+  <si>
+    <t>VX400</t>
+  </si>
+  <si>
+    <t>VP-VX4S</t>
+  </si>
+  <si>
+    <t>VX4S</t>
+  </si>
+  <si>
+    <t>VP-VX6S</t>
+  </si>
+  <si>
+    <t>VX6S</t>
+  </si>
+  <si>
+    <t>VX16S</t>
+  </si>
+  <si>
+    <t>TU15</t>
+  </si>
+  <si>
+    <t>TU20</t>
+  </si>
+  <si>
+    <t>TU40</t>
+  </si>
+  <si>
+    <t>VC4</t>
+  </si>
+  <si>
+    <t>VC6</t>
+  </si>
+  <si>
+    <t>VC10</t>
+  </si>
+  <si>
+    <t>VC16</t>
+  </si>
+  <si>
+    <t>VC24</t>
+  </si>
+  <si>
+    <t>VX1000</t>
+  </si>
+  <si>
+    <t>CX40PRO</t>
+  </si>
+  <si>
+    <t>CX80PRO</t>
+  </si>
+  <si>
+    <t>VP-VX16S</t>
+  </si>
+  <si>
+    <t>MP-TU15</t>
+  </si>
+  <si>
+    <t>MP-TU20</t>
+  </si>
+  <si>
+    <t>MP-TU40</t>
+  </si>
+  <si>
+    <t>VP-VC4</t>
+  </si>
+  <si>
+    <t>VP-VC6</t>
+  </si>
+  <si>
+    <t>VP-VC10</t>
+  </si>
+  <si>
+    <t>VP-VC16</t>
+  </si>
+  <si>
+    <t>VP-VC24</t>
+  </si>
+  <si>
+    <t>VP-VX1000</t>
+  </si>
+  <si>
+    <t>VP-CX40PRO</t>
+  </si>
+  <si>
+    <t>VP-CX80PRO</t>
   </si>
 </sst>
 </file>
@@ -1867,7 +2051,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1957,6 +2141,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1966,7 +2161,17 @@
     <cellStyle name="Normal 5" xfId="4" xr:uid="{ED67CD53-254C-476B-A43A-A6D366E9B16E}"/>
     <cellStyle name="Normal 6" xfId="5" xr:uid="{31321808-6278-4398-B32B-0EC153BDC8A4}"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="53">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2899,7 +3104,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2976,7 +3181,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="42" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4008,7 +4213,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D2">
-    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4024,7 +4229,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4488,7 +4693,7 @@
   <autoFilter ref="A2:D32" xr:uid="{D1557351-AC75-4275-84AC-10988B807ED9}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4496,6 +4701,325 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE8B44D-D866-47D4-A9AE-7ACEC07979C3}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="72.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="72.140625" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
+        <v>549</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>552</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
+        <v>550</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>518</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
+        <v>574</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>553</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>573</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="38" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>554</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="38" t="s">
+        <v>577</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>555</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>576</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
+        <v>579</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>578</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="38" t="s">
+        <v>581</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>557</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>580</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
+        <v>583</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>558</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
+        <v>585</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>559</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
+        <v>586</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>560</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>598</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
+        <v>587</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>561</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>599</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
+        <v>588</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>562</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>600</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
+        <v>589</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>563</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>601</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
+        <v>590</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>564</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>602</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
+        <v>591</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>565</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>603</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
+        <v>592</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>566</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>604</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="38" t="s">
+        <v>593</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>567</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>605</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="38" t="s">
+        <v>594</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>568</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>606</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="38" t="s">
+        <v>595</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>569</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>607</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="38" t="s">
+        <v>596</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>570</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>608</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>571</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>609</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>381</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:B2">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2307915A-A735-4F12-9C66-1563AEDE7F84}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -4665,13 +5189,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E2">
-    <cfRule type="duplicateValues" dxfId="39" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A087147-0889-47E2-B7E5-6733E2DA4BB8}">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -4915,22 +5439,22 @@
   <autoFilter ref="A2:C12" xr:uid="{3A087147-0889-47E2-B7E5-6733E2DA4BB8}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="38" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A16">
-    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="36" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="duplicateValues" dxfId="35" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314C64C8-D764-439F-956B-E5FFD48CB80C}">
   <dimension ref="A1:T29"/>
   <sheetViews>
@@ -5493,13 +6017,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="34" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85276AB-6D20-4E24-BA3A-1994BA2758AE}">
   <dimension ref="A1:D38"/>
   <sheetViews>
@@ -6050,77 +6574,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A7BEE4-357A-4B65-BDAB-F5658C8BDDF7}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6188,13 +6645,80 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A7BEE4-357A-4B65-BDAB-F5658C8BDDF7}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C2">
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758A5D86-441E-4547-BFC0-37BF0DA3CA4E}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -6431,13 +6955,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFA7EB3-932A-4811-830A-42A8E45E58AF}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -6480,7 +7004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA8A2D8-3256-440B-9E14-E258265742B7}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -6540,7 +7064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314E267F-11E0-4E95-AEBA-94E96160A3C7}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -6608,7 +7132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D160B1-107D-4062-8C86-03A4B392FA38}">
   <dimension ref="A1:B38"/>
   <sheetViews>
@@ -6931,7 +7455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04F08E6-C957-4635-AE71-6C74CA9C905B}">
   <dimension ref="A1:B38"/>
   <sheetViews>
@@ -7254,7 +7778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D53FD8-1A25-412E-A323-F2F488E6171C}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -7463,7 +7987,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49BE8BB-ED20-4228-91B2-2B60FBF78A05}">
   <dimension ref="A1:C38"/>
   <sheetViews>
@@ -7827,7 +8351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB2A56E-17F5-4F4B-B55A-AC097B038314}">
   <dimension ref="A1:B38"/>
   <sheetViews>
@@ -8146,159 +8670,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94216276-993F-46D5-B5DC-2B44F8AC08FA}">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:A16">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8365,16 +8736,169 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2">
-    <cfRule type="duplicateValues" dxfId="50" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="49" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94216276-993F-46D5-B5DC-2B44F8AC08FA}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="30" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:A16">
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838D319D-4E21-4D24-B515-3B21CF708CB5}">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -8518,16 +9042,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A16">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503541A4-E68E-4BF4-89DE-3D69378B1D9F}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -8696,19 +9220,19 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A19">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0D754A-7366-44A6-B051-72C1244AB996}">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -8869,13 +9393,13 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A15:A18">
-    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3593EFF-45F7-4A29-8DE9-45EA98503C83}">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -9019,16 +9543,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="21" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A16">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62A5FFB-C134-40B1-8680-30D60A8885DF}">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -9202,17 +9726,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A16">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330D0EDA-4CC0-4D25-885C-C1C08E778A60}">
   <dimension ref="A1:O45"/>
   <sheetViews>
@@ -9633,7 +10157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0798065-59C6-4720-93E4-3CE4B33BD8CB}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -9745,13 +10269,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91E25B2-4E92-4D46-9C6E-1BA2E58E750C}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -9863,13 +10387,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAADBBE6-1391-4512-B020-56872804993A}">
   <dimension ref="A1:E38"/>
   <sheetViews>
@@ -10060,96 +10584,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E240DF3-D7B4-41E6-94E7-4D5C366CEC52}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="16">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10217,13 +10652,102 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="48" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E240DF3-D7B4-41E6-94E7-4D5C366CEC52}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="16">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E20C1A-8A21-41E0-9FF7-195B3A3BE931}">
   <dimension ref="A1:C29"/>
   <sheetViews>
@@ -10505,17 +11029,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A29">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F173EB0-1826-43CD-BBC2-34F89B38C63B}">
   <dimension ref="A1:B33"/>
   <sheetViews>
@@ -10795,13 +11319,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6AED28-F84F-42E9-A39A-F30D0BC83333}">
   <dimension ref="A1:B33"/>
   <sheetViews>
@@ -11081,13 +11605,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B1924F-8A91-4798-BDD8-22FF652F0B04}">
   <dimension ref="A1:B33"/>
   <sheetViews>
@@ -11367,13 +11891,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE4D75B-E407-4F92-A284-9A481483437D}">
   <dimension ref="A1:B33"/>
   <sheetViews>
@@ -11653,13 +12177,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A219D196-7B8E-4099-8625-180160D6F341}">
   <dimension ref="A1:B33"/>
   <sheetViews>
@@ -11939,13 +12463,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9B45FD-FDD3-4BEC-879C-2FF139E7A735}">
   <dimension ref="A1:B33"/>
   <sheetViews>
@@ -12225,13 +12749,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E097EFF-1109-433D-8B8B-E3D27DAE80CB}">
   <dimension ref="A1:B33"/>
   <sheetViews>
@@ -12511,16 +13035,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFA6094-3E85-4CD9-9B78-057F896D00E5}">
   <dimension ref="A1:B33"/>
   <sheetViews>
@@ -12800,97 +13324,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF89E3F5-DCE7-44A2-8672-367DB4BDA25F}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="16">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12945,13 +13379,103 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF89E3F5-DCE7-44A2-8672-367DB4BDA25F}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="16">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03257CC6-E027-4B24-8632-0554CE95F789}">
   <dimension ref="T1:U11"/>
   <sheetViews>
@@ -13055,18 +13579,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E32B68E-D42B-4786-BFE5-4B2187F4D12D}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13439,7 +13963,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13527,7 +14051,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13538,7 +14062,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13605,7 +14129,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13990,7 +14514,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="duplicateValues" dxfId="44" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
